--- a/agent-mode.xlsx
+++ b/agent-mode.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FB6927-B118-4A23-865E-AEA427B0FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57d2ab2a84d54c81/Documents/GitHub/profitable-ai-copilot-excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{38FB6927-B118-4A23-865E-AEA427B0FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BB22CA-9CBB-446A-965C-EB4DDC5F3A65}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Calculator" sheetId="1" r:id="rId1"/>
@@ -283,7 +288,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +620,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,13 +630,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -664,36 +669,15 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C3B00"/>
+        <color rgb="FFA94442"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFE2CC"/>
+          <bgColor rgb="FFFCE4D6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -714,19 +698,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFA94442"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFCE4D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF7F6000"/>
       </font>
       <fill>
@@ -735,6 +706,40 @@
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7A0B0B"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -766,97 +771,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7A0B0B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8D7DA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4098,13 +4012,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1917FB36-980F-44AA-8643-991C8F6FD3E4}" name="financial_close" displayName="financial_close" ref="A1:E13" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1917FB36-980F-44AA-8643-991C8F6FD3E4}" name="financial_close" displayName="financial_close" ref="A1:E13" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E13" xr:uid="{1917FB36-980F-44AA-8643-991C8F6FD3E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C8C9EA7F-4BAE-426F-B97A-597E714D49B9}" name="AccountNumber"/>
     <tableColumn id="2" xr3:uid="{84C87056-25DE-4A94-945B-682DE5ADD1A5}" name="AccountName"/>
     <tableColumn id="3" xr3:uid="{F257F0BB-55D5-4331-9131-E7BC6CC2586F}" name="AccountType"/>
-    <tableColumn id="4" xr3:uid="{C7E01E94-1F35-4D5D-8595-16E532CA33C7}" name="Month" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C7E01E94-1F35-4D5D-8595-16E532CA33C7}" name="Month" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{886FA901-B78E-4481-9E32-3E7E5B046231}" name="Amount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4426,32 +4340,59 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="788" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{89431C7B-6571-42E3-9EB0-B6E14FCF2D83}">
+  <we:reference id="WA200003537" version="1.3.0.0" store="Omex" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003537" version="1.3.0.0" store="WA200003537" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_PREVIEW_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.41015625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:5" ht="20.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4400,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4467,7 +4408,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +4416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4484,16 +4425,16 @@
         <v>1342.0540575303476</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -4510,7 +4451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="8" cm="1">
         <f t="array" ref="A10:A369">_xlfn.LET(_xlpm.n,$B$5*12, IF(_xlpm.n&gt;0, _xlfn.SEQUENCE(_xlpm.n), ""))</f>
         <v>1</v>
@@ -4532,7 +4473,7 @@
         <v>249699.61260913633</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -4549,7 +4490,7 @@
         <v>249397.97360414403</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -4566,7 +4507,7 @@
         <v>249095.07776996429</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -4583,7 +4524,7 @@
         <v>248790.91986980877</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -4600,7 +4541,7 @@
         <v>248485.49464506932</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -4617,7 +4558,7 @@
         <v>248178.79681522676</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="11">
         <v>7</v>
       </c>
@@ -4634,7 +4575,7 @@
         <v>247870.82107775984</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -4651,7 +4592,7 @@
         <v>247561.56210805351</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="11">
         <v>9</v>
       </c>
@@ -4668,7 +4609,7 @@
         <v>247251.0145593067</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="11">
         <v>10</v>
       </c>
@@ -4685,7 +4626,7 @@
         <v>246939.17306244012</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="11">
         <v>11</v>
       </c>
@@ -4702,7 +4643,7 @@
         <v>246626.0322260033</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="11">
         <v>12</v>
       </c>
@@ -4719,7 +4660,7 @@
         <v>246311.58663608131</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="11">
         <v>13</v>
       </c>
@@ -4736,7 +4677,7 @@
         <v>245995.8308562013</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="11">
         <v>14</v>
       </c>
@@ -4753,7 +4694,7 @@
         <v>245678.75942723843</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -4770,7 +4711,7 @@
         <v>245360.3668673216</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="11">
         <v>16</v>
       </c>
@@ -4787,7 +4728,7 @@
         <v>245040.64767173841</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="11">
         <v>17</v>
       </c>
@@ -4804,7 +4745,7 @@
         <v>244719.59631284029</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="11">
         <v>18</v>
       </c>
@@ -4821,7 +4762,7 @@
         <v>244397.20723994682</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="11">
         <v>19</v>
       </c>
@@ -4838,7 +4779,7 @@
         <v>244073.47487924952</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="11">
         <v>20</v>
       </c>
@@ -4855,7 +4796,7 @@
         <v>243748.39363371604</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -4872,7 +4813,7 @@
         <v>243421.95788299287</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="11">
         <v>22</v>
       </c>
@@ -4889,7 +4830,7 @@
         <v>243094.1619833083</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="11">
         <v>23</v>
       </c>
@@ -4906,7 +4847,7 @@
         <v>242765.00026737509</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="11">
         <v>24</v>
       </c>
@@ -4923,7 +4864,7 @@
         <v>242434.46704429216</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="11">
         <v>25</v>
       </c>
@@ -4940,7 +4881,7 @@
         <v>242102.55659944637</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="11">
         <v>26</v>
       </c>
@@ -4957,7 +4898,7 @@
         <v>241769.26319441365</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="11">
         <v>27</v>
       </c>
@@ -4974,7 +4915,7 @@
         <v>241434.58106686006</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="11">
         <v>28</v>
       </c>
@@ -4991,7 +4932,7 @@
         <v>241098.50443044165</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="11">
         <v>29</v>
       </c>
@@ -5008,7 +4949,7 @@
         <v>240761.02747470478</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="11">
         <v>30</v>
       </c>
@@ -5025,7 +4966,7 @@
         <v>240422.14436498575</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="11">
         <v>31</v>
       </c>
@@ -5042,7 +4983,7 @@
         <v>240081.84924230943</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="11">
         <v>32</v>
       </c>
@@ -5059,7 +5000,7 @@
         <v>239740.13622328878</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="11">
         <v>33</v>
       </c>
@@ -5076,7 +5017,7 @@
         <v>239396.99940002209</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="11">
         <v>34</v>
       </c>
@@ -5093,7 +5034,7 @@
         <v>239052.43283999182</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="11">
         <v>35</v>
       </c>
@@ -5110,7 +5051,7 @@
         <v>238706.43058596147</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="11">
         <v>36</v>
       </c>
@@ -5127,7 +5068,7 @@
         <v>238358.98665587261</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="11">
         <v>37</v>
       </c>
@@ -5144,7 +5085,7 @@
         <v>238010.09504274171</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="11">
         <v>38</v>
       </c>
@@ -5161,7 +5102,7 @@
         <v>237659.74971455615</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="11">
         <v>39</v>
       </c>
@@ -5178,7 +5119,7 @@
         <v>237307.94461416977</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="11">
         <v>40</v>
       </c>
@@ -5195,7 +5136,7 @@
         <v>236954.67365919851</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="11">
         <v>41</v>
       </c>
@@ -5212,7 +5153,7 @@
         <v>236599.93074191481</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="11">
         <v>42</v>
       </c>
@@ -5229,7 +5170,7 @@
         <v>236243.7097291424</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="11">
         <v>43</v>
       </c>
@@ -5246,7 +5187,7 @@
         <v>235886.00446215016</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="11">
         <v>44</v>
       </c>
@@ -5263,7 +5204,7 @@
         <v>235526.80875654542</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="11">
         <v>45</v>
       </c>
@@ -5280,7 +5221,7 @@
         <v>235166.11640216736</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="11">
         <v>46</v>
       </c>
@@ -5297,7 +5238,7 @@
         <v>234803.92116297939</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="11">
         <v>47</v>
       </c>
@@ -5314,7 +5255,7 @@
         <v>234440.21677696143</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="11">
         <v>48</v>
       </c>
@@ -5331,7 +5272,7 @@
         <v>234074.99695600176</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="11">
         <v>49</v>
       </c>
@@ -5348,7 +5289,7 @@
         <v>233708.2553857881</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="11">
         <v>50</v>
       </c>
@@ -5365,7 +5306,7 @@
         <v>233339.98572569853</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="11">
         <v>51</v>
       </c>
@@ -5382,7 +5323,7 @@
         <v>232970.18160869193</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" s="11">
         <v>52</v>
       </c>
@@ -5399,7 +5340,7 @@
         <v>232598.83664119773</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" s="11">
         <v>53</v>
       </c>
@@ -5416,7 +5357,7 @@
         <v>232225.94440300576</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" s="11">
         <v>54</v>
       </c>
@@ -5433,7 +5374,7 @@
         <v>231851.49844715459</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="11">
         <v>55</v>
       </c>
@@ -5450,7 +5391,7 @@
         <v>231475.49229982073</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="11">
         <v>56</v>
       </c>
@@ -5467,7 +5408,7 @@
         <v>231097.91946020629</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="11">
         <v>57</v>
       </c>
@@ -5484,7 +5425,7 @@
         <v>230718.77340042684</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" s="11">
         <v>58</v>
       </c>
@@ -5501,7 +5442,7 @@
         <v>230338.04756539821</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="11">
         <v>59</v>
       </c>
@@ -5518,7 +5459,7 @@
         <v>229955.73537272372</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" s="11">
         <v>60</v>
       </c>
@@ -5535,7 +5476,7 @@
         <v>229571.83021257972</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="11">
         <v>61</v>
       </c>
@@ -5552,7 +5493,7 @@
         <v>229186.32544760179</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" s="11">
         <v>62</v>
       </c>
@@ -5569,7 +5510,7 @@
         <v>228799.21441276977</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="11">
         <v>63</v>
       </c>
@@ -5586,7 +5527,7 @@
         <v>228410.49041529259</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" s="11">
         <v>64</v>
       </c>
@@ -5603,7 +5544,7 @@
         <v>228020.14673449268</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="11">
         <v>65</v>
       </c>
@@ -5620,7 +5561,7 @@
         <v>227628.1766216894</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" s="11">
         <v>66</v>
       </c>
@@ -5637,7 +5578,7 @@
         <v>227234.57330008273</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" s="11">
         <v>67</v>
       </c>
@@ -5654,7 +5595,7 @@
         <v>226839.32996463607</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" s="11">
         <v>68</v>
       </c>
@@ -5671,7 +5612,7 @@
         <v>226442.43978195835</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="11">
         <v>69</v>
       </c>
@@ -5688,7 +5629,7 @@
         <v>226043.89589018619</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" s="11">
         <v>70</v>
       </c>
@@ -5705,7 +5646,7 @@
         <v>225643.69139886496</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" s="11">
         <v>71</v>
       </c>
@@ -5722,7 +5663,7 @@
         <v>225241.81938882987</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A81" s="11">
         <v>72</v>
       </c>
@@ -5739,7 +5680,7 @@
         <v>224838.27291208628</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" s="11">
         <v>73</v>
       </c>
@@ -5756,7 +5697,7 @@
         <v>224433.04499168962</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83" s="11">
         <v>74</v>
       </c>
@@ -5773,7 +5714,7 @@
         <v>224026.12862162467</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" s="11">
         <v>75</v>
       </c>
@@ -5790,7 +5731,7 @@
         <v>223617.51676668442</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85" s="11">
         <v>76</v>
       </c>
@@ -5807,7 +5748,7 @@
         <v>223207.20236234862</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A86" s="11">
         <v>77</v>
       </c>
@@ -5824,7 +5765,7 @@
         <v>222795.17831466137</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" s="11">
         <v>78</v>
       </c>
@@ -5841,7 +5782,7 @@
         <v>222381.43750010876</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" s="11">
         <v>79</v>
       </c>
@@ -5858,7 +5799,7 @@
         <v>221965.97276549553</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89" s="11">
         <v>80</v>
       </c>
@@ -5875,7 +5816,7 @@
         <v>221548.77692782143</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" s="11">
         <v>81</v>
       </c>
@@ -5892,7 +5833,7 @@
         <v>221129.842774157</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A91" s="11">
         <v>82</v>
       </c>
@@ -5909,7 +5850,7 @@
         <v>220709.16306151898</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" s="11">
         <v>83</v>
       </c>
@@ -5926,7 +5867,7 @@
         <v>220286.73051674492</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93" s="11">
         <v>84</v>
       </c>
@@ -5943,7 +5884,7 @@
         <v>219862.53783636767</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" s="11">
         <v>85</v>
       </c>
@@ -5960,7 +5901,7 @@
         <v>219436.57768648889</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95" s="11">
         <v>86</v>
       </c>
@@ -5977,7 +5918,7 @@
         <v>219008.84270265224</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A96" s="11">
         <v>87</v>
       </c>
@@ -5994,7 +5935,7 @@
         <v>218579.32548971623</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A97" s="11">
         <v>88</v>
       </c>
@@ -6011,7 +5952,7 @@
         <v>218148.01862172643</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A98" s="11">
         <v>89</v>
       </c>
@@ -6028,7 +5969,7 @@
         <v>217714.9146417866</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A99" s="11">
         <v>90</v>
       </c>
@@ -6045,7 +5986,7 @@
         <v>217280.00606193033</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A100" s="11">
         <v>91</v>
       </c>
@@ -6062,7 +6003,7 @@
         <v>216843.28536299136</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A101" s="11">
         <v>92</v>
       </c>
@@ -6079,7 +6020,7 @@
         <v>216404.74499447353</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A102" s="11">
         <v>93</v>
       </c>
@@ -6096,7 +6037,7 @@
         <v>215964.37737442012</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A103" s="11">
         <v>94</v>
       </c>
@@ -6113,7 +6054,7 @@
         <v>215522.1748892832</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A104" s="11">
         <v>95</v>
       </c>
@@ -6130,7 +6071,7 @@
         <v>215078.12989379148</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A105" s="11">
         <v>96</v>
       </c>
@@ -6147,7 +6088,7 @@
         <v>214632.23471081859</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A106" s="11">
         <v>97</v>
       </c>
@@ -6164,7 +6105,7 @@
         <v>214184.48163125</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A107" s="11">
         <v>98</v>
       </c>
@@ -6181,7 +6122,7 @@
         <v>213734.86291384991</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A108" s="11">
         <v>99</v>
       </c>
@@ -6198,7 +6139,7 @@
         <v>213283.37078512722</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A109" s="11">
         <v>100</v>
       </c>
@@ -6215,7 +6156,7 @@
         <v>212829.99743920157</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A110" s="11">
         <v>101</v>
       </c>
@@ -6232,7 +6173,7 @@
         <v>212374.73503766794</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A111" s="11">
         <v>102</v>
       </c>
@@ -6249,7 +6190,7 @@
         <v>211917.57570946115</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A112" s="11">
         <v>103</v>
       </c>
@@ -6266,7 +6207,7 @@
         <v>211458.51155072023</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A113" s="11">
         <v>104</v>
       </c>
@@ -6283,7 +6224,7 @@
         <v>210997.53462465122</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A114" s="11">
         <v>105</v>
       </c>
@@ -6300,7 +6241,7 @@
         <v>210534.63696139026</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A115" s="11">
         <v>106</v>
       </c>
@@ -6317,7 +6258,7 @@
         <v>210069.81055786568</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A116" s="11">
         <v>107</v>
       </c>
@@ -6334,7 +6275,7 @@
         <v>209603.04737765979</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A117" s="11">
         <v>108</v>
       </c>
@@ -6351,7 +6292,7 @@
         <v>209134.3393508697</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A118" s="11">
         <v>109</v>
       </c>
@@ -6368,7 +6309,7 @@
         <v>208663.678373968</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A119" s="11">
         <v>110</v>
       </c>
@@ -6385,7 +6326,7 @@
         <v>208191.05630966253</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A120" s="11">
         <v>111</v>
       </c>
@@ -6402,7 +6343,7 @@
         <v>207716.46498675572</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A121" s="11">
         <v>112</v>
       </c>
@@ -6419,7 +6360,7 @@
         <v>207239.89620000354</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A122" s="11">
         <v>113</v>
       </c>
@@ -6436,7 +6377,7 @@
         <v>206761.3417099732</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A123" s="11">
         <v>114</v>
       </c>
@@ -6453,7 +6394,7 @@
         <v>206280.79324290104</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A124" s="11">
         <v>115</v>
       </c>
@@ -6470,7 +6411,7 @@
         <v>205798.24249054946</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A125" s="11">
         <v>116</v>
       </c>
@@ -6487,7 +6428,7 @@
         <v>205313.68111006301</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A126" s="11">
         <v>117</v>
       </c>
@@ -6504,7 +6445,7 @@
         <v>204827.10072382464</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A127" s="11">
         <v>118</v>
       </c>
@@ -6521,7 +6462,7 @@
         <v>204338.49291931026</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A128" s="11">
         <v>119</v>
       </c>
@@ -6538,7 +6479,7 @@
         <v>203847.84924894365</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A129" s="11">
         <v>120</v>
       </c>
@@ -6555,7 +6496,7 @@
         <v>203355.16122995061</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A130" s="11">
         <v>121</v>
       </c>
@@ -6572,7 +6513,7 @@
         <v>202860.42034421174</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A131" s="11">
         <v>122</v>
       </c>
@@ -6589,7 +6530,7 @@
         <v>202363.61803811559</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A132" s="11">
         <v>123</v>
       </c>
@@ -6606,7 +6547,7 @@
         <v>201864.74572241076</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A133" s="11">
         <v>124</v>
       </c>
@@ -6623,7 +6564,7 @@
         <v>201363.7947720571</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A134" s="11">
         <v>125</v>
       </c>
@@ -6640,7 +6581,7 @@
         <v>200860.75652607693</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A135" s="11">
         <v>126</v>
       </c>
@@ -6657,7 +6598,7 @@
         <v>200355.62228740531</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A136" s="11">
         <v>127</v>
       </c>
@@ -6674,7 +6615,7 @@
         <v>199848.38332273904</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A137" s="11">
         <v>128</v>
       </c>
@@ -6691,7 +6632,7 @@
         <v>199339.03086238686</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A138" s="11">
         <v>129</v>
       </c>
@@ -6708,7 +6649,7 @@
         <v>198827.55610011646</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A139" s="11">
         <v>130</v>
       </c>
@@ -6725,7 +6666,7 @@
         <v>198313.95019300323</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A140" s="11">
         <v>131</v>
       </c>
@@ -6742,7 +6683,7 @@
         <v>197798.2042612771</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A141" s="11">
         <v>132</v>
       </c>
@@ -6759,7 +6700,7 @@
         <v>197280.30938816871</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A142" s="11">
         <v>133</v>
       </c>
@@ -6776,7 +6717,7 @@
         <v>196760.25661975573</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A143" s="11">
         <v>134</v>
       </c>
@@ -6793,7 +6734,7 @@
         <v>196238.03696480772</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A144" s="11">
         <v>135</v>
       </c>
@@ -6810,7 +6751,7 @@
         <v>195713.64139463069</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A145" s="11">
         <v>136</v>
       </c>
@@ -6827,7 +6768,7 @@
         <v>195187.06084291133</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A146" s="11">
         <v>137</v>
       </c>
@@ -6844,7 +6785,7 @@
         <v>194658.28620555979</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A147" s="11">
         <v>138</v>
       </c>
@@ -6861,7 +6802,7 @@
         <v>194127.30834055258</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A148" s="11">
         <v>139</v>
       </c>
@@ -6878,7 +6819,7 @@
         <v>193594.1180677746</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A149" s="11">
         <v>140</v>
       </c>
@@ -6895,7 +6836,7 @@
         <v>193058.70616885991</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A150" s="11">
         <v>141</v>
       </c>
@@ -6912,7 +6853,7 @@
         <v>192521.06338703318</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A151" s="11">
         <v>142</v>
       </c>
@@ -6929,7 +6870,7 @@
         <v>191981.18042694882</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A152" s="11">
         <v>143</v>
       </c>
@@ -6946,7 +6887,7 @@
         <v>191439.04795453069</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A153" s="11">
         <v>144</v>
       </c>
@@ -6963,7 +6904,7 @@
         <v>190894.65659681096</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A154" s="11">
         <v>145</v>
       </c>
@@ -6980,7 +6921,7 @@
         <v>190347.99694176723</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A155" s="11">
         <v>146</v>
       </c>
@@ -6997,7 +6938,7 @@
         <v>189799.05953816097</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A156" s="11">
         <v>147</v>
       </c>
@@ -7014,7 +6955,7 @@
         <v>189247.83489537291</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A157" s="11">
         <v>148</v>
       </c>
@@ -7031,7 +6972,7 @@
         <v>188694.31348323997</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A158" s="11">
         <v>149</v>
       </c>
@@ -7048,7 +6989,7 @@
         <v>188138.48573188978</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A159" s="11">
         <v>150</v>
       </c>
@@ -7065,7 +7006,7 @@
         <v>187580.34203157568</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A160" s="11">
         <v>151</v>
       </c>
@@ -7082,7 +7023,7 @@
         <v>187019.87273251015</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A161" s="11">
         <v>152</v>
       </c>
@@ -7099,7 +7040,7 @@
         <v>186457.06814469863</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A162" s="11">
         <v>153</v>
       </c>
@@ -7116,7 +7057,7 @@
         <v>185891.91853777121</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A163" s="11">
         <v>154</v>
       </c>
@@ -7133,7 +7074,7 @@
         <v>185324.41414081486</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A164" s="11">
         <v>155</v>
       </c>
@@ -7150,7 +7091,7 @@
         <v>184754.54514220462</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A165" s="11">
         <v>156</v>
       </c>
@@ -7167,7 +7108,7 @@
         <v>184182.30168943346</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A166" s="11">
         <v>157</v>
       </c>
@@ -7184,7 +7125,7 @@
         <v>183607.6738889424</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A167" s="11">
         <v>158</v>
       </c>
@@ -7201,7 +7142,7 @@
         <v>183030.65180594934</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A168" s="11">
         <v>159</v>
       </c>
@@ -7218,7 +7159,7 @@
         <v>182451.22546427703</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A169" s="11">
         <v>160</v>
       </c>
@@ -7235,7 +7176,7 @@
         <v>181869.38484618126</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A170" s="11">
         <v>161</v>
       </c>
@@ -7252,7 +7193,7 @@
         <v>181285.11989217665</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A171" s="11">
         <v>162</v>
       </c>
@@ -7269,7 +7210,7 @@
         <v>180698.42050086363</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A172" s="11">
         <v>163</v>
       </c>
@@ -7286,7 +7227,7 @@
         <v>180109.27652875357</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A173" s="11">
         <v>164</v>
       </c>
@@ -7303,7 +7244,7 @@
         <v>179517.67779009306</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A174" s="11">
         <v>165</v>
       </c>
@@ -7320,7 +7261,7 @@
         <v>178923.61405668809</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A175" s="11">
         <v>166</v>
       </c>
@@ -7337,7 +7278,7 @@
         <v>178327.07505772728</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A176" s="11">
         <v>167</v>
       </c>
@@ -7354,7 +7295,7 @@
         <v>177728.05047960411</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A177" s="11">
         <v>168</v>
       </c>
@@ -7371,7 +7312,7 @@
         <v>177126.52996573877</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A178" s="11">
         <v>169</v>
       </c>
@@ -7388,7 +7329,7 @@
         <v>176522.50311639905</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A179" s="11">
         <v>170</v>
       </c>
@@ -7405,7 +7346,7 @@
         <v>175915.95948852034</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A180" s="11">
         <v>171</v>
       </c>
@@ -7422,7 +7363,7 @@
         <v>175306.88859552547</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A181" s="11">
         <v>172</v>
       </c>
@@ -7439,7 +7380,7 @@
         <v>174695.27990714315</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A182" s="11">
         <v>173</v>
       </c>
@@ -7456,7 +7397,7 @@
         <v>174081.12284922594</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A183" s="11">
         <v>174</v>
       </c>
@@ -7473,7 +7414,7 @@
         <v>173464.40680356737</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A184" s="11">
         <v>175</v>
       </c>
@@ -7490,7 +7431,7 @@
         <v>172845.1211077185</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A185" s="11">
         <v>176</v>
       </c>
@@ -7507,7 +7448,7 @@
         <v>172223.25505480362</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A186" s="11">
         <v>177</v>
       </c>
@@ -7524,7 +7465,7 @@
         <v>171598.79789333505</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A187" s="11">
         <v>178</v>
       </c>
@@ -7541,7 +7482,7 @@
         <v>170971.73882702691</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A188" s="11">
         <v>179</v>
       </c>
@@ -7558,7 +7499,7 @@
         <v>170342.06701460911</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A189" s="11">
         <v>180</v>
       </c>
@@ -7575,7 +7516,7 @@
         <v>169709.77156963968</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A190" s="11">
         <v>181</v>
       </c>
@@ -7592,7 +7533,7 @@
         <v>169074.84156031616</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A191" s="11">
         <v>182</v>
       </c>
@@ -7609,7 +7550,7 @@
         <v>168437.26600928704</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A192" s="11">
         <v>183</v>
       </c>
@@ -7626,7 +7567,7 @@
         <v>167797.0338934621</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A193" s="11">
         <v>184</v>
       </c>
@@ -7643,7 +7584,7 @@
         <v>167154.1341438212</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A194" s="11">
         <v>185</v>
       </c>
@@ -7660,7 +7601,7 @@
         <v>166508.55564522342</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A195" s="11">
         <v>186</v>
       </c>
@@ -7677,7 +7618,7 @@
         <v>165860.28723621485</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A196" s="11">
         <v>187</v>
       </c>
@@ -7694,7 +7635,7 @@
         <v>165209.31770883541</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A197" s="11">
         <v>188</v>
       </c>
@@ -7711,7 +7652,7 @@
         <v>164555.6358084252</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A198" s="11">
         <v>189</v>
       </c>
@@ -7728,7 +7669,7 @@
         <v>163899.23023342993</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A199" s="11">
         <v>190</v>
       </c>
@@ -7745,7 +7686,7 @@
         <v>163240.08963520551</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A200" s="11">
         <v>191</v>
       </c>
@@ -7762,7 +7703,7 @@
         <v>162578.20261782187</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A201" s="11">
         <v>192</v>
       </c>
@@ -7779,7 +7720,7 @@
         <v>161913.55773786583</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A202" s="11">
         <v>193</v>
       </c>
@@ -7796,7 +7737,7 @@
         <v>161246.14350424323</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A203" s="11">
         <v>194</v>
       </c>
@@ -7813,7 +7754,7 @@
         <v>160575.9483779805</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A204" s="11">
         <v>195</v>
       </c>
@@ -7830,7 +7771,7 @@
         <v>159902.96077202505</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A205" s="11">
         <v>196</v>
       </c>
@@ -7847,7 +7788,7 @@
         <v>159227.16905104485</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A206" s="11">
         <v>197</v>
       </c>
@@ -7864,7 +7805,7 @@
         <v>158548.5615312272</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A207" s="11">
         <v>198</v>
       </c>
@@ -7881,7 +7822,7 @@
         <v>157867.12648007699</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A208" s="11">
         <v>199</v>
       </c>
@@ -7898,7 +7839,7 @@
         <v>157182.85211621365</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A209" s="11">
         <v>200</v>
       </c>
@@ -7915,7 +7856,7 @@
         <v>156495.72660916747</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A210" s="11">
         <v>201</v>
       </c>
@@ -7932,7 +7873,7 @@
         <v>155805.73807917535</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A211" s="11">
         <v>202</v>
       </c>
@@ -7949,7 +7890,7 @@
         <v>155112.87459697481</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A212" s="11">
         <v>203</v>
       </c>
@@ -7966,7 +7907,7 @@
         <v>154417.12418359867</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A213" s="11">
         <v>204</v>
       </c>
@@ -7983,7 +7924,7 @@
         <v>153718.47481016658</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A214" s="11">
         <v>205</v>
       </c>
@@ -8000,7 +7941,7 @@
         <v>153016.91439767857</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A215" s="11">
         <v>206</v>
       </c>
@@ -8017,7 +7958,7 @@
         <v>152312.43081680528</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A216" s="11">
         <v>207</v>
       </c>
@@ -8034,7 +7975,7 @@
         <v>151605.01188767818</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A217" s="11">
         <v>208</v>
       </c>
@@ -8051,7 +7992,7 @@
         <v>150894.64537967992</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A218" s="11">
         <v>209</v>
       </c>
@@ -8068,7 +8009,7 @@
         <v>150181.31901123154</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A219" s="11">
         <v>210</v>
       </c>
@@ -8085,7 +8026,7 @@
         <v>149465.02044958132</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A220" s="11">
         <v>211</v>
       </c>
@@ -8102,7 +8043,7 @@
         <v>148745.73731059086</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A221" s="11">
         <v>212</v>
       </c>
@@ -8119,7 +8060,7 @@
         <v>148023.45715852128</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A222" s="11">
         <v>213</v>
       </c>
@@ -8136,7 +8077,7 @@
         <v>147298.16750581807</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A223" s="11">
         <v>214</v>
       </c>
@@ -8153,7 +8094,7 @@
         <v>146569.85581289534</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A224" s="11">
         <v>215</v>
       </c>
@@ -8170,7 +8111,7 @@
         <v>145838.50948791869</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A225" s="11">
         <v>216</v>
       </c>
@@ -8187,7 +8128,7 @@
         <v>145104.11588658806</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A226" s="11">
         <v>217</v>
       </c>
@@ -8204,7 +8145,7 @@
         <v>144366.66231191851</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A227" s="11">
         <v>218</v>
       </c>
@@ -8221,7 +8162,7 @@
         <v>143626.13601402112</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A228" s="11">
         <v>219</v>
       </c>
@@ -8238,7 +8179,7 @@
         <v>142882.52418988256</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A229" s="11">
         <v>220</v>
       </c>
@@ -8255,7 +8196,7 @@
         <v>142135.81398314337</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A230" s="11">
         <v>221</v>
       </c>
@@ -8272,7 +8213,7 @@
         <v>141385.99248387618</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A231" s="11">
         <v>222</v>
       </c>
@@ -8289,7 +8230,7 @@
         <v>140633.04672836198</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A232" s="11">
         <v>223</v>
       </c>
@@ -8306,7 +8247,7 @@
         <v>139876.96369886625</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A233" s="11">
         <v>224</v>
       </c>
@@ -8323,7 +8264,7 @@
         <v>139117.73032341467</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A234" s="11">
         <v>225</v>
       </c>
@@ -8340,7 +8281,7 @@
         <v>138355.33347556525</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A235" s="11">
         <v>226</v>
       </c>
@@ -8357,7 +8298,7 @@
         <v>137589.75997418311</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A236" s="11">
         <v>227</v>
       </c>
@@ -8374,7 +8315,7 @@
         <v>136820.99658321176</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A237" s="11">
         <v>228</v>
       </c>
@@ -8391,7 +8332,7 @@
         <v>136049.03001144488</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A238" s="11">
         <v>229</v>
       </c>
@@ -8408,7 +8349,7 @@
         <v>135273.8469122955</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A239" s="11">
         <v>230</v>
       </c>
@@ -8425,7 +8366,7 @@
         <v>134495.43388356641</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A240" s="11">
         <v>231</v>
       </c>
@@ -8442,7 +8383,7 @@
         <v>133713.77746721753</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A241" s="11">
         <v>232</v>
       </c>
@@ -8459,7 +8400,7 @@
         <v>132928.86414913397</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A242" s="11">
         <v>233</v>
       </c>
@@ -8476,7 +8417,7 @@
         <v>132140.68035889161</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A243" s="11">
         <v>234</v>
       </c>
@@ -8493,7 +8434,7 @@
         <v>131349.21246952319</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A244" s="11">
         <v>235</v>
       </c>
@@ -8510,7 +8451,7 @@
         <v>130554.44679728267</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A245" s="11">
         <v>236</v>
       </c>
@@ -8527,7 +8468,7 @@
         <v>129756.36960140755</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A246" s="11">
         <v>237</v>
       </c>
@@ -8544,7 +8485,7 @@
         <v>128954.96708388324</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A247" s="11">
         <v>238</v>
       </c>
@@ -8561,7 +8502,7 @@
         <v>128150.22538920236</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A248" s="11">
         <v>239</v>
       </c>
@@ -8578,7 +8519,7 @@
         <v>127342.13060412707</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A249" s="11">
         <v>240</v>
       </c>
@@ -8595,7 +8536,7 @@
         <v>126530.66875744716</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A250" s="11">
         <v>241</v>
       </c>
@@ -8612,7 +8553,7 @@
         <v>125715.82581973949</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A251" s="11">
         <v>242</v>
       </c>
@@ -8629,7 +8570,7 @@
         <v>124897.58770312485</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A252" s="11">
         <v>243</v>
       </c>
@@ -8646,7 +8587,7 @@
         <v>124075.94026102417</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A253" s="11">
         <v>244</v>
       </c>
@@ -8663,7 +8604,7 @@
         <v>123250.86928791471</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A254" s="11">
         <v>245</v>
       </c>
@@ -8680,7 +8621,7 @@
         <v>122422.36051908392</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A255" s="11">
         <v>246</v>
       </c>
@@ -8697,7 +8638,7 @@
         <v>121590.39963038312</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A256" s="11">
         <v>247</v>
       </c>
@@ -8714,7 +8655,7 @@
         <v>120754.97223797929</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A257" s="11">
         <v>248</v>
       </c>
@@ -8731,7 +8672,7 @@
         <v>119916.06389810739</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A258" s="11">
         <v>249</v>
       </c>
@@ -8748,7 +8689,7 @@
         <v>119073.66010681912</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A259" s="11">
         <v>250</v>
       </c>
@@ -8765,7 +8706,7 @@
         <v>118227.74629973376</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A260" s="11">
         <v>251</v>
       </c>
@@ -8782,7 +8723,7 @@
         <v>117378.30785178568</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A261" s="11">
         <v>252</v>
       </c>
@@ -8799,7 +8740,7 @@
         <v>116525.33007697097</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A262" s="11">
         <v>253</v>
       </c>
@@ -8816,7 +8757,7 @@
         <v>115668.79822809482</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A263" s="11">
         <v>254</v>
       </c>
@@ -8833,7 +8774,7 @@
         <v>114808.69749651488</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A264" s="11">
         <v>255</v>
       </c>
@@ -8850,7 +8791,7 @@
         <v>113945.01301188651</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A265" s="11">
         <v>256</v>
       </c>
@@ -8867,7 +8808,7 @@
         <v>113077.72984190576</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A266" s="11">
         <v>257</v>
       </c>
@@ -8884,7 +8825,7 @@
         <v>112206.83299204998</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A267" s="11">
         <v>258</v>
       </c>
@@ -8901,7 +8842,7 @@
         <v>111332.30740531988</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A268" s="11">
         <v>259</v>
       </c>
@@ -8918,7 +8859,7 @@
         <v>110454.13796197833</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A269" s="11">
         <v>260</v>
       </c>
@@ -8935,7 +8876,7 @@
         <v>109572.30947928957</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A270" s="11">
         <v>261</v>
       </c>
@@ -8952,7 +8893,7 @@
         <v>108686.80671125639</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A271" s="11">
         <v>262</v>
       </c>
@@ -8969,7 +8910,7 @@
         <v>107797.61434835615</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A272" s="11">
         <v>263</v>
       </c>
@@ -8986,7 +8927,7 @@
         <v>106904.71701727726</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A273" s="11">
         <v>264</v>
       </c>
@@ -9003,7 +8944,7 @@
         <v>106008.09928065224</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A274" s="11">
         <v>265</v>
       </c>
@@ -9020,7 +8961,7 @@
         <v>105107.74563679134</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A275" s="11">
         <v>266</v>
       </c>
@@ -9037,7 +8978,7 @@
         <v>104203.64051941433</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A276" s="11">
         <v>267</v>
       </c>
@@ -9054,7 +8995,7 @@
         <v>103295.76829738147</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A277" s="11">
         <v>268</v>
       </c>
@@ -9071,7 +9012,7 @@
         <v>102384.11327442352</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A278" s="11">
         <v>269</v>
       </c>
@@ -9088,7 +9029,7 @@
         <v>101468.65968886996</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A279" s="11">
         <v>270</v>
       </c>
@@ -9105,7 +9046,7 @@
         <v>100549.39171337662</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A280" s="11">
         <v>271</v>
       </c>
@@ -9122,7 +9063,7 @@
         <v>99626.293454651954</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A281" s="11">
         <v>272</v>
       </c>
@@ -9139,7 +9080,7 @@
         <v>98699.348953182693</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A282" s="11">
         <v>273</v>
       </c>
@@ -9156,7 +9097,7 @@
         <v>97768.542182957171</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A283" s="11">
         <v>274</v>
       </c>
@@ -9173,7 +9114,7 @@
         <v>96833.85705118929</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A284" s="11">
         <v>275</v>
       </c>
@@ -9190,7 +9131,7 @@
         <v>95895.277398038888</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A285" s="11">
         <v>276</v>
       </c>
@@ -9207,7 +9148,7 @@
         <v>94952.786996333627</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A286" s="11">
         <v>277</v>
       </c>
@@ -9224,7 +9165,7 @@
         <v>94006.36955128808</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A287" s="11">
         <v>278</v>
       </c>
@@ -9241,7 +9182,7 @@
         <v>93056.008700221428</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A288" s="11">
         <v>279</v>
       </c>
@@ -9258,7 +9199,7 @@
         <v>92101.688012275146</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A289" s="11">
         <v>280</v>
       </c>
@@ -9275,7 +9216,7 @@
         <v>91143.390988129424</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A290" s="11">
         <v>281</v>
       </c>
@@ -9292,7 +9233,7 @@
         <v>90181.101059716195</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A291" s="11">
         <v>282</v>
       </c>
@@ -9309,7 +9250,7 @@
         <v>89214.801589934621</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A292" s="11">
         <v>283</v>
       </c>
@@ -9326,7 +9267,7 @@
         <v>88244.475872362382</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A293" s="11">
         <v>284</v>
       </c>
@@ -9343,7 +9284,7 @@
         <v>87270.107130966848</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A294" s="11">
         <v>285</v>
       </c>
@@ -9360,7 +9301,7 @@
         <v>86291.678519815672</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A295" s="11">
         <v>286</v>
       </c>
@@ -9377,7 +9318,7 @@
         <v>85309.173122784472</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A296" s="11">
         <v>287</v>
       </c>
@@ -9394,7 +9335,7 @@
         <v>84322.573953265673</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A297" s="11">
         <v>288</v>
       </c>
@@ -9411,7 +9352,7 @@
         <v>83331.863953873981</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A298" s="11">
         <v>289</v>
       </c>
@@ -9428,7 +9369,7 @@
         <v>82337.02599615138</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A299" s="11">
         <v>290</v>
       </c>
@@ -9445,7 +9386,7 @@
         <v>81338.042880271678</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A300" s="11">
         <v>291</v>
       </c>
@@ -9462,7 +9403,7 @@
         <v>80334.897334742476</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A301" s="11">
         <v>292</v>
       </c>
@@ -9479,7 +9420,7 @@
         <v>79327.572016106918</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A302" s="11">
         <v>293</v>
       </c>
@@ -9496,7 +9437,7 @@
         <v>78316.049508643569</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A303" s="11">
         <v>294</v>
       </c>
@@ -9513,7 +9454,7 @@
         <v>77300.312324065948</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A304" s="11">
         <v>295</v>
       </c>
@@ -9530,7 +9471,7 @@
         <v>76280.342901219148</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A305" s="11">
         <v>296</v>
       </c>
@@ -9547,7 +9488,7 @@
         <v>75256.123605777277</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A306" s="11">
         <v>297</v>
       </c>
@@ -9564,7 +9505,7 @@
         <v>74227.636729937745</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A307" s="11">
         <v>298</v>
       </c>
@@ -9581,7 +9522,7 @@
         <v>73194.864492115332</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A308" s="11">
         <v>299</v>
       </c>
@@ -9598,7 +9539,7 @@
         <v>72157.789036635659</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A309" s="11">
         <v>300</v>
       </c>
@@ -9615,7 +9556,7 @@
         <v>71116.39243342448</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A310" s="11">
         <v>301</v>
       </c>
@@ -9632,7 +9573,7 @@
         <v>70070.656677700114</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A311" s="11">
         <v>302</v>
       </c>
@@ -9649,7 +9590,7 @@
         <v>69020.563689660165</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A312" s="11">
         <v>303</v>
       </c>
@@ -9666,7 +9607,7 @@
         <v>67966.095314170001</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A313" s="11">
         <v>304</v>
       </c>
@@ -9683,7 +9624,7 @@
         <v>66907.23332044878</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A314" s="11">
         <v>305</v>
       </c>
@@ -9700,7 +9641,7 @@
         <v>65843.959401753615</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A315" s="11">
         <v>306</v>
       </c>
@@ -9717,7 +9658,7 @@
         <v>64776.255175063852</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A316" s="11">
         <v>307</v>
       </c>
@@ -9734,7 +9675,7 @@
         <v>63704.102180763031</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A317" s="11">
         <v>308</v>
       </c>
@@ -9751,7 +9692,7 @@
         <v>62627.481882319087</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A318" s="11">
         <v>309</v>
       </c>
@@ -9768,7 +9709,7 @@
         <v>61546.375665965141</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A319" s="11">
         <v>310</v>
       </c>
@@ -9785,7 +9726,7 @@
         <v>60460.764840376214</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A320" s="11">
         <v>311</v>
       </c>
@@ -9802,7 +9743,7 @@
         <v>59370.630636347341</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A321" s="11">
         <v>312</v>
       </c>
@@ -9819,7 +9760,7 @@
         <v>58275.954206468654</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A322" s="11">
         <v>313</v>
       </c>
@@ -9836,7 +9777,7 @@
         <v>57176.716624798602</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A323" s="11">
         <v>314</v>
       </c>
@@ -9853,7 +9794,7 @@
         <v>56072.898886538111</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A324" s="11">
         <v>315</v>
       </c>
@@ -9870,7 +9811,7 @@
         <v>54964.481907701702</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A325" s="11">
         <v>316</v>
       </c>
@@ -9887,7 +9828,7 @@
         <v>53851.446524786879</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A326" s="11">
         <v>317</v>
       </c>
@@ -9904,7 +9845,7 @@
         <v>52733.773494443041</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A327" s="11">
         <v>318</v>
       </c>
@@ -9921,7 +9862,7 @@
         <v>51611.443493139697</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A328" s="11">
         <v>319</v>
       </c>
@@ -9938,7 +9879,7 @@
         <v>50484.437116830493</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A329" s="11">
         <v>320</v>
       </c>
@@ -9955,7 +9896,7 @@
         <v>49352.734880620264</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A330" s="11">
         <v>321</v>
       </c>
@@ -9972,7 +9913,7 @@
         <v>48216.317218425917</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A331" s="11">
         <v>322</v>
       </c>
@@ -9989,7 +9930,7 @@
         <v>47075.164482638938</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A332" s="11">
         <v>323</v>
       </c>
@@ -10006,7 +9947,7 @@
         <v>45929.256943786284</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A333" s="11">
         <v>324</v>
       </c>
@@ -10023,7 +9964,7 @@
         <v>44778.574790188344</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A334" s="11">
         <v>325</v>
       </c>
@@ -10040,7 +9981,7 @@
         <v>43623.098127617268</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A335" s="11">
         <v>326</v>
       </c>
@@ -10057,7 +9998,7 @@
         <v>42462.806978951907</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A336" s="11">
         <v>327</v>
       </c>
@@ -10074,7 +10015,7 @@
         <v>41297.681283833808</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A337" s="11">
         <v>328</v>
       </c>
@@ -10091,7 +10032,7 @@
         <v>40127.700898319483</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A338" s="11">
         <v>329</v>
       </c>
@@ -10108,7 +10049,7 @@
         <v>38952.845594532206</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A339" s="11">
         <v>330</v>
       </c>
@@ -10125,7 +10066,7 @@
         <v>37773.095060312306</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A340" s="11">
         <v>331</v>
       </c>
@@ -10142,7 +10083,7 @@
         <v>36588.428898866638</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A341" s="11">
         <v>332</v>
       </c>
@@ -10159,7 +10100,7 @@
         <v>35398.82662841503</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A342" s="11">
         <v>333</v>
       </c>
@@ -10176,7 +10117,7 @@
         <v>34204.267681836267</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A343" s="11">
         <v>334</v>
       </c>
@@ -10193,7 +10134,7 @@
         <v>33004.7314063136</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A344" s="11">
         <v>335</v>
       </c>
@@ -10210,7 +10151,7 @@
         <v>31800.197062976076</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A345" s="11">
         <v>336</v>
       </c>
@@ -10227,7 +10168,7 @@
         <v>30590.643826541607</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A346" s="11">
         <v>337</v>
       </c>
@@ -10244,7 +10185,7 @@
         <v>29376.05078495515</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A347" s="11">
         <v>338</v>
       </c>
@@ -10261,7 +10202,7 @@
         <v>28156.396939028753</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A348" s="11">
         <v>339</v>
       </c>
@@ -10278,7 +10219,7 @@
         <v>26931.661202077754</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A349" s="11">
         <v>340</v>
       </c>
@@ -10295,7 +10236,7 @@
         <v>25701.822399556055</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A350" s="11">
         <v>341</v>
       </c>
@@ -10312,7 +10253,7 @@
         <v>24466.859268690459</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A351" s="11">
         <v>342</v>
       </c>
@@ -10329,7 +10270,7 @@
         <v>23226.750458112918</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A352" s="11">
         <v>343</v>
       </c>
@@ -10346,7 +10287,7 @@
         <v>21981.474527491257</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A353" s="11">
         <v>344</v>
       </c>
@@ -10363,7 +10304,7 @@
         <v>20731.009947159095</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A354" s="11">
         <v>345</v>
       </c>
@@ -10380,7 +10321,7 @@
         <v>19475.335097741801</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A355" s="11">
         <v>346</v>
       </c>
@@ -10397,7 +10338,7 @@
         <v>18214.42826978548</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A356" s="11">
         <v>347</v>
       </c>
@@ -10414,7 +10355,7 @@
         <v>16948.2676633792</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A357" s="11">
         <v>348</v>
       </c>
@@ -10431,7 +10372,7 @@
         <v>15676.831387779559</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A358" s="11">
         <v>349</v>
       </c>
@@ -10448,7 +10389,7 @@
         <v>14400.09746103175</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A359" s="11">
         <v>350</v>
       </c>
@@ -10465,7 +10406,7 @@
         <v>13118.043809588766</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A360" s="11">
         <v>351</v>
       </c>
@@ -10482,7 +10423,7 @@
         <v>11830.648267931538</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A361" s="11">
         <v>352</v>
       </c>
@@ -10499,7 +10440,7 @@
         <v>10537.888578184647</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A362" s="11">
         <v>353</v>
       </c>
@@ -10516,7 +10457,7 @@
         <v>9239.742389729945</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A363" s="11">
         <v>354</v>
       </c>
@@ -10533,7 +10474,7 @@
         <v>7936.1872588233091</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A364" s="11">
         <v>355</v>
       </c>
@@ -10550,7 +10491,7 @@
         <v>6627.2006482046563</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A365" s="11">
         <v>356</v>
       </c>
@@ -10567,7 +10508,7 @@
         <v>5312.759926708648</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A366" s="11">
         <v>357</v>
       </c>
@@ -10584,7 +10525,7 @@
         <v>3992.8423688728362</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A367" s="11">
         <v>358</v>
       </c>
@@ -10601,7 +10542,7 @@
         <v>2667.4251545462757</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A368" s="11">
         <v>359</v>
       </c>
@@ -10618,7 +10559,7 @@
         <v>1336.4853684930131</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A369" s="11">
         <v>360</v>
       </c>
@@ -10635,4417 +10576,4417 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A370" s="11"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A371" s="11"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
       <c r="D371" s="12"/>
       <c r="E371" s="13"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A372" s="11"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
       <c r="D372" s="12"/>
       <c r="E372" s="13"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A373" s="11"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
       <c r="D373" s="12"/>
       <c r="E373" s="13"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A374" s="11"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
       <c r="D374" s="12"/>
       <c r="E374" s="13"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A375" s="11"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
       <c r="D375" s="12"/>
       <c r="E375" s="13"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A376" s="11"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
       <c r="E376" s="13"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A377" s="11"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
       <c r="D377" s="12"/>
       <c r="E377" s="13"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A378" s="11"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
       <c r="E378" s="13"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A379" s="11"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
       <c r="D379" s="12"/>
       <c r="E379" s="13"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A380" s="11"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
       <c r="D380" s="12"/>
       <c r="E380" s="13"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A381" s="11"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
       <c r="E381" s="13"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A382" s="11"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
       <c r="E382" s="13"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A383" s="11"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
       <c r="D383" s="12"/>
       <c r="E383" s="13"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A384" s="11"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
       <c r="D384" s="12"/>
       <c r="E384" s="13"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A385" s="11"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
       <c r="D385" s="12"/>
       <c r="E385" s="13"/>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A386" s="11"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
       <c r="D386" s="12"/>
       <c r="E386" s="13"/>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A387" s="11"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
       <c r="D387" s="12"/>
       <c r="E387" s="13"/>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A388" s="11"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
       <c r="D388" s="12"/>
       <c r="E388" s="13"/>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A389" s="11"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
       <c r="E389" s="13"/>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A390" s="11"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
       <c r="D390" s="12"/>
       <c r="E390" s="13"/>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A391" s="11"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
       <c r="D391" s="12"/>
       <c r="E391" s="13"/>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A392" s="11"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
       <c r="D392" s="12"/>
       <c r="E392" s="13"/>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A393" s="11"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
       <c r="D393" s="12"/>
       <c r="E393" s="13"/>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A394" s="11"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
       <c r="D394" s="12"/>
       <c r="E394" s="13"/>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A395" s="11"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
       <c r="D395" s="12"/>
       <c r="E395" s="13"/>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A396" s="11"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
       <c r="D396" s="12"/>
       <c r="E396" s="13"/>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A397" s="11"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
       <c r="D397" s="12"/>
       <c r="E397" s="13"/>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A398" s="11"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
       <c r="D398" s="12"/>
       <c r="E398" s="13"/>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A399" s="11"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
       <c r="D399" s="12"/>
       <c r="E399" s="13"/>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A400" s="11"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
       <c r="D400" s="12"/>
       <c r="E400" s="13"/>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A401" s="11"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
       <c r="D401" s="12"/>
       <c r="E401" s="13"/>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A402" s="11"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
       <c r="D402" s="12"/>
       <c r="E402" s="13"/>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A403" s="11"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
       <c r="D403" s="12"/>
       <c r="E403" s="13"/>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A404" s="11"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
       <c r="D404" s="12"/>
       <c r="E404" s="13"/>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A405" s="11"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
       <c r="D405" s="12"/>
       <c r="E405" s="13"/>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A406" s="11"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
       <c r="D406" s="12"/>
       <c r="E406" s="13"/>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A407" s="11"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
       <c r="D407" s="12"/>
       <c r="E407" s="13"/>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A408" s="11"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
       <c r="D408" s="12"/>
       <c r="E408" s="13"/>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A409" s="11"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
       <c r="D409" s="12"/>
       <c r="E409" s="13"/>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A410" s="11"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
       <c r="D410" s="12"/>
       <c r="E410" s="13"/>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A411" s="11"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
       <c r="D411" s="12"/>
       <c r="E411" s="13"/>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A412" s="11"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
       <c r="D412" s="12"/>
       <c r="E412" s="13"/>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A413" s="11"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
       <c r="D413" s="12"/>
       <c r="E413" s="13"/>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A414" s="11"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
       <c r="D414" s="12"/>
       <c r="E414" s="13"/>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A415" s="11"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
       <c r="D415" s="12"/>
       <c r="E415" s="13"/>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A416" s="11"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
       <c r="D416" s="12"/>
       <c r="E416" s="13"/>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A417" s="11"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
       <c r="D417" s="12"/>
       <c r="E417" s="13"/>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A418" s="11"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
       <c r="D418" s="12"/>
       <c r="E418" s="13"/>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A419" s="11"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
       <c r="D419" s="12"/>
       <c r="E419" s="13"/>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A420" s="11"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
       <c r="D420" s="12"/>
       <c r="E420" s="13"/>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A421" s="11"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
       <c r="D421" s="12"/>
       <c r="E421" s="13"/>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A422" s="11"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
       <c r="D422" s="12"/>
       <c r="E422" s="13"/>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A423" s="11"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
       <c r="D423" s="12"/>
       <c r="E423" s="13"/>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A424" s="11"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
       <c r="D424" s="12"/>
       <c r="E424" s="13"/>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A425" s="11"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
       <c r="D425" s="12"/>
       <c r="E425" s="13"/>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A426" s="11"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
       <c r="D426" s="12"/>
       <c r="E426" s="13"/>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A427" s="11"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
       <c r="D427" s="12"/>
       <c r="E427" s="13"/>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A428" s="11"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
       <c r="D428" s="12"/>
       <c r="E428" s="13"/>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A429" s="11"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
       <c r="D429" s="12"/>
       <c r="E429" s="13"/>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A430" s="11"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
       <c r="D430" s="12"/>
       <c r="E430" s="13"/>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A431" s="11"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
       <c r="D431" s="12"/>
       <c r="E431" s="13"/>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A432" s="11"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
       <c r="D432" s="12"/>
       <c r="E432" s="13"/>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A433" s="11"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
       <c r="D433" s="12"/>
       <c r="E433" s="13"/>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A434" s="11"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
       <c r="D434" s="12"/>
       <c r="E434" s="13"/>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A435" s="11"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
       <c r="D435" s="12"/>
       <c r="E435" s="13"/>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A436" s="11"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
       <c r="D436" s="12"/>
       <c r="E436" s="13"/>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A437" s="11"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
       <c r="D437" s="12"/>
       <c r="E437" s="13"/>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A438" s="11"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
       <c r="D438" s="12"/>
       <c r="E438" s="13"/>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A439" s="11"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
       <c r="D439" s="12"/>
       <c r="E439" s="13"/>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A440" s="11"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
       <c r="D440" s="12"/>
       <c r="E440" s="13"/>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A441" s="11"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
       <c r="D441" s="12"/>
       <c r="E441" s="13"/>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A442" s="11"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
       <c r="D442" s="12"/>
       <c r="E442" s="13"/>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A443" s="11"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
       <c r="D443" s="12"/>
       <c r="E443" s="13"/>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A444" s="11"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
       <c r="D444" s="12"/>
       <c r="E444" s="13"/>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A445" s="11"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
       <c r="D445" s="12"/>
       <c r="E445" s="13"/>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A446" s="11"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
       <c r="D446" s="12"/>
       <c r="E446" s="13"/>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A447" s="11"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
       <c r="D447" s="12"/>
       <c r="E447" s="13"/>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A448" s="11"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
       <c r="D448" s="12"/>
       <c r="E448" s="13"/>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A449" s="11"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
       <c r="D449" s="12"/>
       <c r="E449" s="13"/>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A450" s="11"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
       <c r="D450" s="12"/>
       <c r="E450" s="13"/>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A451" s="11"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
       <c r="D451" s="12"/>
       <c r="E451" s="13"/>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A452" s="11"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
       <c r="D452" s="12"/>
       <c r="E452" s="13"/>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A453" s="11"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
       <c r="D453" s="12"/>
       <c r="E453" s="13"/>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A454" s="11"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
       <c r="D454" s="12"/>
       <c r="E454" s="13"/>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A455" s="11"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
       <c r="D455" s="12"/>
       <c r="E455" s="13"/>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A456" s="11"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
       <c r="D456" s="12"/>
       <c r="E456" s="13"/>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A457" s="11"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
       <c r="D457" s="12"/>
       <c r="E457" s="13"/>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A458" s="11"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
       <c r="D458" s="12"/>
       <c r="E458" s="13"/>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A459" s="11"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
       <c r="D459" s="12"/>
       <c r="E459" s="13"/>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A460" s="11"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
       <c r="D460" s="12"/>
       <c r="E460" s="13"/>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A461" s="11"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
       <c r="D461" s="12"/>
       <c r="E461" s="13"/>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A462" s="11"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
       <c r="E462" s="13"/>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A463" s="11"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
       <c r="D463" s="12"/>
       <c r="E463" s="13"/>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A464" s="11"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
       <c r="D464" s="12"/>
       <c r="E464" s="13"/>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A465" s="11"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
       <c r="D465" s="12"/>
       <c r="E465" s="13"/>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A466" s="11"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
       <c r="D466" s="12"/>
       <c r="E466" s="13"/>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A467" s="11"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
       <c r="D467" s="12"/>
       <c r="E467" s="13"/>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A468" s="11"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
       <c r="D468" s="12"/>
       <c r="E468" s="13"/>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A469" s="11"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
       <c r="D469" s="12"/>
       <c r="E469" s="13"/>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A470" s="11"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
       <c r="D470" s="12"/>
       <c r="E470" s="13"/>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A471" s="11"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
       <c r="D471" s="12"/>
       <c r="E471" s="13"/>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A472" s="11"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
       <c r="D472" s="12"/>
       <c r="E472" s="13"/>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A473" s="11"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
       <c r="D473" s="12"/>
       <c r="E473" s="13"/>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A474" s="11"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
       <c r="D474" s="12"/>
       <c r="E474" s="13"/>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A475" s="11"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
       <c r="D475" s="12"/>
       <c r="E475" s="13"/>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A476" s="11"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
       <c r="D476" s="12"/>
       <c r="E476" s="13"/>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A477" s="11"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
       <c r="D477" s="12"/>
       <c r="E477" s="13"/>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A478" s="11"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
       <c r="D478" s="12"/>
       <c r="E478" s="13"/>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A479" s="11"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
       <c r="D479" s="12"/>
       <c r="E479" s="13"/>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A480" s="11"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
       <c r="D480" s="12"/>
       <c r="E480" s="13"/>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A481" s="11"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
       <c r="D481" s="12"/>
       <c r="E481" s="13"/>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A482" s="11"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
       <c r="D482" s="12"/>
       <c r="E482" s="13"/>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A483" s="11"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
       <c r="D483" s="12"/>
       <c r="E483" s="13"/>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A484" s="11"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
       <c r="D484" s="12"/>
       <c r="E484" s="13"/>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A485" s="11"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
       <c r="D485" s="12"/>
       <c r="E485" s="13"/>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A486" s="11"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
       <c r="D486" s="12"/>
       <c r="E486" s="13"/>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A487" s="11"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
       <c r="D487" s="12"/>
       <c r="E487" s="13"/>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A488" s="11"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
       <c r="D488" s="12"/>
       <c r="E488" s="13"/>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A489" s="11"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
       <c r="D489" s="12"/>
       <c r="E489" s="13"/>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A490" s="11"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
       <c r="D490" s="12"/>
       <c r="E490" s="13"/>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A491" s="11"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
       <c r="D491" s="12"/>
       <c r="E491" s="13"/>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A492" s="11"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
       <c r="D492" s="12"/>
       <c r="E492" s="13"/>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A493" s="11"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
       <c r="D493" s="12"/>
       <c r="E493" s="13"/>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A494" s="11"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
       <c r="D494" s="12"/>
       <c r="E494" s="13"/>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A495" s="11"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
       <c r="D495" s="12"/>
       <c r="E495" s="13"/>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A496" s="11"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
       <c r="D496" s="12"/>
       <c r="E496" s="13"/>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A497" s="11"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
       <c r="D497" s="12"/>
       <c r="E497" s="13"/>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A498" s="11"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
       <c r="D498" s="12"/>
       <c r="E498" s="13"/>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A499" s="11"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
       <c r="D499" s="12"/>
       <c r="E499" s="13"/>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A500" s="11"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
       <c r="D500" s="12"/>
       <c r="E500" s="13"/>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A501" s="11"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
       <c r="D501" s="12"/>
       <c r="E501" s="13"/>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A502" s="11"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
       <c r="D502" s="12"/>
       <c r="E502" s="13"/>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A503" s="11"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
       <c r="D503" s="12"/>
       <c r="E503" s="13"/>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A504" s="11"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
       <c r="D504" s="12"/>
       <c r="E504" s="13"/>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A505" s="11"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
       <c r="D505" s="12"/>
       <c r="E505" s="13"/>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A506" s="11"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
       <c r="D506" s="12"/>
       <c r="E506" s="13"/>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A507" s="11"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
       <c r="D507" s="12"/>
       <c r="E507" s="13"/>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A508" s="11"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
       <c r="D508" s="12"/>
       <c r="E508" s="13"/>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A509" s="11"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
       <c r="D509" s="12"/>
       <c r="E509" s="13"/>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A510" s="11"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
       <c r="D510" s="12"/>
       <c r="E510" s="13"/>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A511" s="11"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
       <c r="D511" s="12"/>
       <c r="E511" s="13"/>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A512" s="11"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
       <c r="D512" s="12"/>
       <c r="E512" s="13"/>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A513" s="11"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
       <c r="D513" s="12"/>
       <c r="E513" s="13"/>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A514" s="11"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
       <c r="D514" s="12"/>
       <c r="E514" s="13"/>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A515" s="11"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
       <c r="D515" s="12"/>
       <c r="E515" s="13"/>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A516" s="11"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
       <c r="D516" s="12"/>
       <c r="E516" s="13"/>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A517" s="11"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
       <c r="D517" s="12"/>
       <c r="E517" s="13"/>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A518" s="11"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
       <c r="D518" s="12"/>
       <c r="E518" s="13"/>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A519" s="11"/>
       <c r="B519" s="12"/>
       <c r="C519" s="12"/>
       <c r="D519" s="12"/>
       <c r="E519" s="13"/>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A520" s="11"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
       <c r="D520" s="12"/>
       <c r="E520" s="13"/>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A521" s="11"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
       <c r="D521" s="12"/>
       <c r="E521" s="13"/>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A522" s="11"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
       <c r="D522" s="12"/>
       <c r="E522" s="13"/>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A523" s="11"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
       <c r="D523" s="12"/>
       <c r="E523" s="13"/>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A524" s="11"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
       <c r="D524" s="12"/>
       <c r="E524" s="13"/>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A525" s="11"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
       <c r="D525" s="12"/>
       <c r="E525" s="13"/>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A526" s="11"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
       <c r="D526" s="12"/>
       <c r="E526" s="13"/>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A527" s="11"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
       <c r="D527" s="12"/>
       <c r="E527" s="13"/>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A528" s="11"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
       <c r="D528" s="12"/>
       <c r="E528" s="13"/>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A529" s="11"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
       <c r="D529" s="12"/>
       <c r="E529" s="13"/>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A530" s="11"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
       <c r="D530" s="12"/>
       <c r="E530" s="13"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A531" s="11"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
       <c r="D531" s="12"/>
       <c r="E531" s="13"/>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A532" s="11"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
       <c r="D532" s="12"/>
       <c r="E532" s="13"/>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A533" s="11"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
       <c r="D533" s="12"/>
       <c r="E533" s="13"/>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A534" s="11"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
       <c r="D534" s="12"/>
       <c r="E534" s="13"/>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A535" s="11"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
       <c r="D535" s="12"/>
       <c r="E535" s="13"/>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A536" s="11"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
       <c r="D536" s="12"/>
       <c r="E536" s="13"/>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A537" s="11"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
       <c r="D537" s="12"/>
       <c r="E537" s="13"/>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A538" s="11"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
       <c r="D538" s="12"/>
       <c r="E538" s="13"/>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A539" s="11"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
       <c r="D539" s="12"/>
       <c r="E539" s="13"/>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A540" s="11"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
       <c r="D540" s="12"/>
       <c r="E540" s="13"/>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A541" s="11"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
       <c r="D541" s="12"/>
       <c r="E541" s="13"/>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A542" s="11"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
       <c r="E542" s="13"/>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A543" s="11"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
       <c r="E543" s="13"/>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A544" s="11"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
       <c r="E544" s="13"/>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A545" s="11"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
       <c r="E545" s="13"/>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A546" s="11"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
       <c r="D546" s="12"/>
       <c r="E546" s="13"/>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A547" s="11"/>
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
       <c r="D547" s="12"/>
       <c r="E547" s="13"/>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A548" s="11"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
       <c r="D548" s="12"/>
       <c r="E548" s="13"/>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A549" s="11"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
       <c r="D549" s="12"/>
       <c r="E549" s="13"/>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A550" s="11"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
       <c r="D550" s="12"/>
       <c r="E550" s="13"/>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A551" s="11"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
       <c r="D551" s="12"/>
       <c r="E551" s="13"/>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A552" s="11"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
       <c r="D552" s="12"/>
       <c r="E552" s="13"/>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A553" s="11"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
       <c r="D553" s="12"/>
       <c r="E553" s="13"/>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A554" s="11"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
       <c r="D554" s="12"/>
       <c r="E554" s="13"/>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A555" s="11"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
       <c r="D555" s="12"/>
       <c r="E555" s="13"/>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A556" s="11"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
       <c r="D556" s="12"/>
       <c r="E556" s="13"/>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A557" s="11"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
       <c r="D557" s="12"/>
       <c r="E557" s="13"/>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A558" s="11"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
       <c r="D558" s="12"/>
       <c r="E558" s="13"/>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A559" s="11"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
       <c r="D559" s="12"/>
       <c r="E559" s="13"/>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A560" s="11"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
       <c r="D560" s="12"/>
       <c r="E560" s="13"/>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A561" s="11"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
       <c r="D561" s="12"/>
       <c r="E561" s="13"/>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A562" s="11"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
       <c r="D562" s="12"/>
       <c r="E562" s="13"/>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A563" s="11"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
       <c r="D563" s="12"/>
       <c r="E563" s="13"/>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A564" s="11"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
       <c r="D564" s="12"/>
       <c r="E564" s="13"/>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A565" s="11"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
       <c r="D565" s="12"/>
       <c r="E565" s="13"/>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A566" s="11"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
       <c r="D566" s="12"/>
       <c r="E566" s="13"/>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A567" s="11"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
       <c r="D567" s="12"/>
       <c r="E567" s="13"/>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A568" s="11"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
       <c r="D568" s="12"/>
       <c r="E568" s="13"/>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A569" s="11"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
       <c r="D569" s="12"/>
       <c r="E569" s="13"/>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A570" s="11"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
       <c r="D570" s="12"/>
       <c r="E570" s="13"/>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A571" s="11"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
       <c r="D571" s="12"/>
       <c r="E571" s="13"/>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A572" s="11"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
       <c r="D572" s="12"/>
       <c r="E572" s="13"/>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A573" s="11"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
       <c r="D573" s="12"/>
       <c r="E573" s="13"/>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A574" s="11"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
       <c r="D574" s="12"/>
       <c r="E574" s="13"/>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A575" s="11"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
       <c r="D575" s="12"/>
       <c r="E575" s="13"/>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A576" s="11"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
       <c r="D576" s="12"/>
       <c r="E576" s="13"/>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A577" s="11"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
       <c r="D577" s="12"/>
       <c r="E577" s="13"/>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A578" s="11"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
       <c r="D578" s="12"/>
       <c r="E578" s="13"/>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A579" s="11"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
       <c r="D579" s="12"/>
       <c r="E579" s="13"/>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A580" s="11"/>
       <c r="B580" s="12"/>
       <c r="C580" s="12"/>
       <c r="D580" s="12"/>
       <c r="E580" s="13"/>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A581" s="11"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
       <c r="D581" s="12"/>
       <c r="E581" s="13"/>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A582" s="11"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
       <c r="D582" s="12"/>
       <c r="E582" s="13"/>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A583" s="11"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
       <c r="D583" s="12"/>
       <c r="E583" s="13"/>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A584" s="11"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
       <c r="D584" s="12"/>
       <c r="E584" s="13"/>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A585" s="11"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
       <c r="D585" s="12"/>
       <c r="E585" s="13"/>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A586" s="11"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
       <c r="D586" s="12"/>
       <c r="E586" s="13"/>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A587" s="11"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
       <c r="D587" s="12"/>
       <c r="E587" s="13"/>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A588" s="11"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
       <c r="D588" s="12"/>
       <c r="E588" s="13"/>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A589" s="11"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
       <c r="D589" s="12"/>
       <c r="E589" s="13"/>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A590" s="11"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
       <c r="D590" s="12"/>
       <c r="E590" s="13"/>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A591" s="11"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
       <c r="D591" s="12"/>
       <c r="E591" s="13"/>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A592" s="11"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
       <c r="D592" s="12"/>
       <c r="E592" s="13"/>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A593" s="11"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
       <c r="D593" s="12"/>
       <c r="E593" s="13"/>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A594" s="11"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
       <c r="D594" s="12"/>
       <c r="E594" s="13"/>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A595" s="11"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
       <c r="D595" s="12"/>
       <c r="E595" s="13"/>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A596" s="11"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
       <c r="D596" s="12"/>
       <c r="E596" s="13"/>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A597" s="11"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
       <c r="D597" s="12"/>
       <c r="E597" s="13"/>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A598" s="11"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
       <c r="D598" s="12"/>
       <c r="E598" s="13"/>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A599" s="11"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
       <c r="D599" s="12"/>
       <c r="E599" s="13"/>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A600" s="11"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
       <c r="D600" s="12"/>
       <c r="E600" s="13"/>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A601" s="11"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
       <c r="D601" s="12"/>
       <c r="E601" s="13"/>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A602" s="11"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
       <c r="D602" s="12"/>
       <c r="E602" s="13"/>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A603" s="11"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
       <c r="D603" s="12"/>
       <c r="E603" s="13"/>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A604" s="11"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
       <c r="D604" s="12"/>
       <c r="E604" s="13"/>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A605" s="11"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
       <c r="D605" s="12"/>
       <c r="E605" s="13"/>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A606" s="11"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
       <c r="D606" s="12"/>
       <c r="E606" s="13"/>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A607" s="11"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
       <c r="D607" s="12"/>
       <c r="E607" s="13"/>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A608" s="11"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
       <c r="D608" s="12"/>
       <c r="E608" s="13"/>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A609" s="11"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
       <c r="D609" s="12"/>
       <c r="E609" s="13"/>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A610" s="11"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
       <c r="D610" s="12"/>
       <c r="E610" s="13"/>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A611" s="11"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
       <c r="D611" s="12"/>
       <c r="E611" s="13"/>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A612" s="11"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
       <c r="D612" s="12"/>
       <c r="E612" s="13"/>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A613" s="11"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
       <c r="D613" s="12"/>
       <c r="E613" s="13"/>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A614" s="11"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
       <c r="D614" s="12"/>
       <c r="E614" s="13"/>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A615" s="11"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
       <c r="D615" s="12"/>
       <c r="E615" s="13"/>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A616" s="11"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
       <c r="D616" s="12"/>
       <c r="E616" s="13"/>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A617" s="11"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
       <c r="D617" s="12"/>
       <c r="E617" s="13"/>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A618" s="11"/>
       <c r="B618" s="12"/>
       <c r="C618" s="12"/>
       <c r="D618" s="12"/>
       <c r="E618" s="13"/>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A619" s="11"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
       <c r="D619" s="12"/>
       <c r="E619" s="13"/>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A620" s="11"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
       <c r="D620" s="12"/>
       <c r="E620" s="13"/>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A621" s="11"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
       <c r="D621" s="12"/>
       <c r="E621" s="13"/>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A622" s="11"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
       <c r="D622" s="12"/>
       <c r="E622" s="13"/>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A623" s="11"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
       <c r="D623" s="12"/>
       <c r="E623" s="13"/>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A624" s="11"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
       <c r="D624" s="12"/>
       <c r="E624" s="13"/>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A625" s="11"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
       <c r="D625" s="12"/>
       <c r="E625" s="13"/>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A626" s="11"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
       <c r="D626" s="12"/>
       <c r="E626" s="13"/>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A627" s="11"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
       <c r="D627" s="12"/>
       <c r="E627" s="13"/>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A628" s="11"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
       <c r="D628" s="12"/>
       <c r="E628" s="13"/>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A629" s="11"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
       <c r="D629" s="12"/>
       <c r="E629" s="13"/>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A630" s="11"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
       <c r="D630" s="12"/>
       <c r="E630" s="13"/>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A631" s="11"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
       <c r="D631" s="12"/>
       <c r="E631" s="13"/>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A632" s="11"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
       <c r="D632" s="12"/>
       <c r="E632" s="13"/>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A633" s="11"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
       <c r="D633" s="12"/>
       <c r="E633" s="13"/>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A634" s="11"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
       <c r="D634" s="12"/>
       <c r="E634" s="13"/>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A635" s="11"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
       <c r="D635" s="12"/>
       <c r="E635" s="13"/>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A636" s="11"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
       <c r="D636" s="12"/>
       <c r="E636" s="13"/>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A637" s="11"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
       <c r="D637" s="12"/>
       <c r="E637" s="13"/>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A638" s="11"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
       <c r="D638" s="12"/>
       <c r="E638" s="13"/>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A639" s="11"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
       <c r="D639" s="12"/>
       <c r="E639" s="13"/>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A640" s="11"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
       <c r="D640" s="12"/>
       <c r="E640" s="13"/>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A641" s="11"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
       <c r="D641" s="12"/>
       <c r="E641" s="13"/>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A642" s="11"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
       <c r="D642" s="12"/>
       <c r="E642" s="13"/>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A643" s="11"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
       <c r="D643" s="12"/>
       <c r="E643" s="13"/>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A644" s="11"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
       <c r="D644" s="12"/>
       <c r="E644" s="13"/>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A645" s="11"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
       <c r="D645" s="12"/>
       <c r="E645" s="13"/>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A646" s="11"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
       <c r="D646" s="12"/>
       <c r="E646" s="13"/>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A647" s="11"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
       <c r="D647" s="12"/>
       <c r="E647" s="13"/>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A648" s="11"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
       <c r="D648" s="12"/>
       <c r="E648" s="13"/>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A649" s="11"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
       <c r="D649" s="12"/>
       <c r="E649" s="13"/>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A650" s="11"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
       <c r="D650" s="12"/>
       <c r="E650" s="13"/>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A651" s="11"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
       <c r="D651" s="12"/>
       <c r="E651" s="13"/>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A652" s="11"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
       <c r="D652" s="12"/>
       <c r="E652" s="13"/>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A653" s="11"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
       <c r="D653" s="12"/>
       <c r="E653" s="13"/>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A654" s="11"/>
       <c r="B654" s="12"/>
       <c r="C654" s="12"/>
       <c r="D654" s="12"/>
       <c r="E654" s="13"/>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A655" s="11"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
       <c r="D655" s="12"/>
       <c r="E655" s="13"/>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A656" s="11"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
       <c r="D656" s="12"/>
       <c r="E656" s="13"/>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A657" s="11"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
       <c r="D657" s="12"/>
       <c r="E657" s="13"/>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A658" s="11"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
       <c r="D658" s="12"/>
       <c r="E658" s="13"/>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A659" s="11"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
       <c r="D659" s="12"/>
       <c r="E659" s="13"/>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A660" s="11"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
       <c r="D660" s="12"/>
       <c r="E660" s="13"/>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A661" s="11"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
       <c r="D661" s="12"/>
       <c r="E661" s="13"/>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A662" s="11"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
       <c r="D662" s="12"/>
       <c r="E662" s="13"/>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A663" s="11"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
       <c r="D663" s="12"/>
       <c r="E663" s="13"/>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A664" s="11"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
       <c r="D664" s="12"/>
       <c r="E664" s="13"/>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A665" s="11"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
       <c r="D665" s="12"/>
       <c r="E665" s="13"/>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A666" s="11"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
       <c r="D666" s="12"/>
       <c r="E666" s="13"/>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A667" s="11"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
       <c r="D667" s="12"/>
       <c r="E667" s="13"/>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A668" s="11"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
       <c r="D668" s="12"/>
       <c r="E668" s="13"/>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A669" s="11"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
       <c r="D669" s="12"/>
       <c r="E669" s="13"/>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A670" s="11"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
       <c r="D670" s="12"/>
       <c r="E670" s="13"/>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A671" s="11"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
       <c r="D671" s="12"/>
       <c r="E671" s="13"/>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A672" s="11"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
       <c r="D672" s="12"/>
       <c r="E672" s="13"/>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A673" s="11"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
       <c r="D673" s="12"/>
       <c r="E673" s="13"/>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A674" s="11"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
       <c r="D674" s="12"/>
       <c r="E674" s="13"/>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A675" s="11"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
       <c r="D675" s="12"/>
       <c r="E675" s="13"/>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A676" s="11"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
       <c r="D676" s="12"/>
       <c r="E676" s="13"/>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A677" s="11"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
       <c r="D677" s="12"/>
       <c r="E677" s="13"/>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A678" s="11"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
       <c r="D678" s="12"/>
       <c r="E678" s="13"/>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A679" s="11"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
       <c r="D679" s="12"/>
       <c r="E679" s="13"/>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A680" s="11"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
       <c r="D680" s="12"/>
       <c r="E680" s="13"/>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A681" s="11"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
       <c r="D681" s="12"/>
       <c r="E681" s="13"/>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A682" s="11"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
       <c r="D682" s="12"/>
       <c r="E682" s="13"/>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A683" s="11"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
       <c r="D683" s="12"/>
       <c r="E683" s="13"/>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A684" s="11"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
       <c r="D684" s="12"/>
       <c r="E684" s="13"/>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A685" s="11"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
       <c r="D685" s="12"/>
       <c r="E685" s="13"/>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A686" s="11"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
       <c r="D686" s="12"/>
       <c r="E686" s="13"/>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A687" s="11"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
       <c r="D687" s="12"/>
       <c r="E687" s="13"/>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A688" s="11"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
       <c r="D688" s="12"/>
       <c r="E688" s="13"/>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A689" s="11"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
       <c r="D689" s="12"/>
       <c r="E689" s="13"/>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A690" s="11"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
       <c r="D690" s="12"/>
       <c r="E690" s="13"/>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A691" s="11"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
       <c r="D691" s="12"/>
       <c r="E691" s="13"/>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A692" s="11"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
       <c r="D692" s="12"/>
       <c r="E692" s="13"/>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A693" s="11"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
       <c r="D693" s="12"/>
       <c r="E693" s="13"/>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A694" s="11"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
       <c r="D694" s="12"/>
       <c r="E694" s="13"/>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A695" s="11"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
       <c r="D695" s="12"/>
       <c r="E695" s="13"/>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A696" s="11"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
       <c r="D696" s="12"/>
       <c r="E696" s="13"/>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A697" s="11"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
       <c r="D697" s="12"/>
       <c r="E697" s="13"/>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A698" s="11"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
       <c r="D698" s="12"/>
       <c r="E698" s="13"/>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A699" s="11"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
       <c r="D699" s="12"/>
       <c r="E699" s="13"/>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A700" s="11"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
       <c r="D700" s="12"/>
       <c r="E700" s="13"/>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A701" s="11"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
       <c r="D701" s="12"/>
       <c r="E701" s="13"/>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A702" s="11"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
       <c r="D702" s="12"/>
       <c r="E702" s="13"/>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A703" s="11"/>
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
       <c r="D703" s="12"/>
       <c r="E703" s="13"/>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A704" s="11"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
       <c r="D704" s="12"/>
       <c r="E704" s="13"/>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A705" s="11"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
       <c r="D705" s="12"/>
       <c r="E705" s="13"/>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A706" s="11"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
       <c r="D706" s="12"/>
       <c r="E706" s="13"/>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A707" s="11"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
       <c r="D707" s="12"/>
       <c r="E707" s="13"/>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A708" s="11"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
       <c r="D708" s="12"/>
       <c r="E708" s="13"/>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A709" s="11"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
       <c r="D709" s="12"/>
       <c r="E709" s="13"/>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A710" s="11"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
       <c r="D710" s="12"/>
       <c r="E710" s="13"/>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A711" s="11"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
       <c r="D711" s="12"/>
       <c r="E711" s="13"/>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A712" s="11"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
       <c r="D712" s="12"/>
       <c r="E712" s="13"/>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A713" s="11"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
       <c r="D713" s="12"/>
       <c r="E713" s="13"/>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A714" s="11"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
       <c r="D714" s="12"/>
       <c r="E714" s="13"/>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A715" s="11"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
       <c r="D715" s="12"/>
       <c r="E715" s="13"/>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A716" s="11"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
       <c r="D716" s="12"/>
       <c r="E716" s="13"/>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A717" s="11"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
       <c r="D717" s="12"/>
       <c r="E717" s="13"/>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A718" s="11"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
       <c r="D718" s="12"/>
       <c r="E718" s="13"/>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A719" s="11"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
       <c r="D719" s="12"/>
       <c r="E719" s="13"/>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A720" s="11"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
       <c r="D720" s="12"/>
       <c r="E720" s="13"/>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A721" s="11"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
       <c r="D721" s="12"/>
       <c r="E721" s="13"/>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A722" s="11"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
       <c r="D722" s="12"/>
       <c r="E722" s="13"/>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A723" s="11"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
       <c r="D723" s="12"/>
       <c r="E723" s="13"/>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A724" s="11"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
       <c r="D724" s="12"/>
       <c r="E724" s="13"/>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A725" s="11"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
       <c r="D725" s="12"/>
       <c r="E725" s="13"/>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A726" s="11"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
       <c r="D726" s="12"/>
       <c r="E726" s="13"/>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A727" s="11"/>
       <c r="B727" s="12"/>
       <c r="C727" s="12"/>
       <c r="D727" s="12"/>
       <c r="E727" s="13"/>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A728" s="11"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
       <c r="D728" s="12"/>
       <c r="E728" s="13"/>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A729" s="11"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
       <c r="D729" s="12"/>
       <c r="E729" s="13"/>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A730" s="11"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
       <c r="D730" s="12"/>
       <c r="E730" s="13"/>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A731" s="11"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
       <c r="D731" s="12"/>
       <c r="E731" s="13"/>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A732" s="11"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
       <c r="D732" s="12"/>
       <c r="E732" s="13"/>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A733" s="11"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
       <c r="D733" s="12"/>
       <c r="E733" s="13"/>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A734" s="11"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
       <c r="D734" s="12"/>
       <c r="E734" s="13"/>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A735" s="11"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
       <c r="D735" s="12"/>
       <c r="E735" s="13"/>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A736" s="11"/>
       <c r="B736" s="12"/>
       <c r="C736" s="12"/>
       <c r="D736" s="12"/>
       <c r="E736" s="13"/>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A737" s="11"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
       <c r="D737" s="12"/>
       <c r="E737" s="13"/>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A738" s="11"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
       <c r="D738" s="12"/>
       <c r="E738" s="13"/>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A739" s="11"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
       <c r="D739" s="12"/>
       <c r="E739" s="13"/>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A740" s="11"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
       <c r="D740" s="12"/>
       <c r="E740" s="13"/>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A741" s="11"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
       <c r="D741" s="12"/>
       <c r="E741" s="13"/>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A742" s="11"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
       <c r="D742" s="12"/>
       <c r="E742" s="13"/>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A743" s="11"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
       <c r="D743" s="12"/>
       <c r="E743" s="13"/>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A744" s="11"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
       <c r="D744" s="12"/>
       <c r="E744" s="13"/>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A745" s="11"/>
       <c r="B745" s="12"/>
       <c r="C745" s="12"/>
       <c r="D745" s="12"/>
       <c r="E745" s="13"/>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A746" s="11"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
       <c r="D746" s="12"/>
       <c r="E746" s="13"/>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A747" s="11"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
       <c r="D747" s="12"/>
       <c r="E747" s="13"/>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A748" s="11"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
       <c r="D748" s="12"/>
       <c r="E748" s="13"/>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A749" s="11"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
       <c r="D749" s="12"/>
       <c r="E749" s="13"/>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A750" s="11"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
       <c r="D750" s="12"/>
       <c r="E750" s="13"/>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A751" s="11"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
       <c r="D751" s="12"/>
       <c r="E751" s="13"/>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A752" s="11"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
       <c r="D752" s="12"/>
       <c r="E752" s="13"/>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A753" s="11"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
       <c r="D753" s="12"/>
       <c r="E753" s="13"/>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A754" s="11"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
       <c r="D754" s="12"/>
       <c r="E754" s="13"/>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A755" s="11"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
       <c r="D755" s="12"/>
       <c r="E755" s="13"/>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A756" s="11"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
       <c r="D756" s="12"/>
       <c r="E756" s="13"/>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A757" s="11"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
       <c r="D757" s="12"/>
       <c r="E757" s="13"/>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A758" s="11"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
       <c r="D758" s="12"/>
       <c r="E758" s="13"/>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A759" s="11"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
       <c r="D759" s="12"/>
       <c r="E759" s="13"/>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A760" s="11"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
       <c r="D760" s="12"/>
       <c r="E760" s="13"/>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A761" s="11"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
       <c r="D761" s="12"/>
       <c r="E761" s="13"/>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A762" s="11"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
       <c r="D762" s="12"/>
       <c r="E762" s="13"/>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A763" s="11"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
       <c r="D763" s="12"/>
       <c r="E763" s="13"/>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A764" s="11"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
       <c r="D764" s="12"/>
       <c r="E764" s="13"/>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A765" s="11"/>
       <c r="B765" s="12"/>
       <c r="C765" s="12"/>
       <c r="D765" s="12"/>
       <c r="E765" s="13"/>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A766" s="11"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
       <c r="D766" s="12"/>
       <c r="E766" s="13"/>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A767" s="11"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
       <c r="D767" s="12"/>
       <c r="E767" s="13"/>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A768" s="11"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
       <c r="D768" s="12"/>
       <c r="E768" s="13"/>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A769" s="11"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
       <c r="D769" s="12"/>
       <c r="E769" s="13"/>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A770" s="11"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
       <c r="D770" s="12"/>
       <c r="E770" s="13"/>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A771" s="11"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
       <c r="D771" s="12"/>
       <c r="E771" s="13"/>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A772" s="11"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
       <c r="D772" s="12"/>
       <c r="E772" s="13"/>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A773" s="11"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
       <c r="D773" s="12"/>
       <c r="E773" s="13"/>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A774" s="11"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
       <c r="D774" s="12"/>
       <c r="E774" s="13"/>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A775" s="11"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
       <c r="D775" s="12"/>
       <c r="E775" s="13"/>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A776" s="11"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
       <c r="D776" s="12"/>
       <c r="E776" s="13"/>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A777" s="11"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
       <c r="D777" s="12"/>
       <c r="E777" s="13"/>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A778" s="11"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
       <c r="D778" s="12"/>
       <c r="E778" s="13"/>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A779" s="11"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
       <c r="D779" s="12"/>
       <c r="E779" s="13"/>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A780" s="11"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
       <c r="D780" s="12"/>
       <c r="E780" s="13"/>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A781" s="11"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
       <c r="D781" s="12"/>
       <c r="E781" s="13"/>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A782" s="11"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
       <c r="D782" s="12"/>
       <c r="E782" s="13"/>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A783" s="11"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
       <c r="D783" s="12"/>
       <c r="E783" s="13"/>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A784" s="11"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
       <c r="D784" s="12"/>
       <c r="E784" s="13"/>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A785" s="11"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
       <c r="D785" s="12"/>
       <c r="E785" s="13"/>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A786" s="11"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
       <c r="D786" s="12"/>
       <c r="E786" s="13"/>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A787" s="11"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
       <c r="D787" s="12"/>
       <c r="E787" s="13"/>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A788" s="11"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
       <c r="D788" s="12"/>
       <c r="E788" s="13"/>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A789" s="11"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
       <c r="D789" s="12"/>
       <c r="E789" s="13"/>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A790" s="11"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
       <c r="D790" s="12"/>
       <c r="E790" s="13"/>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A791" s="11"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
       <c r="D791" s="12"/>
       <c r="E791" s="13"/>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A792" s="11"/>
       <c r="B792" s="12"/>
       <c r="C792" s="12"/>
       <c r="D792" s="12"/>
       <c r="E792" s="13"/>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A793" s="11"/>
       <c r="B793" s="12"/>
       <c r="C793" s="12"/>
       <c r="D793" s="12"/>
       <c r="E793" s="13"/>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A794" s="11"/>
       <c r="B794" s="12"/>
       <c r="C794" s="12"/>
       <c r="D794" s="12"/>
       <c r="E794" s="13"/>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A795" s="11"/>
       <c r="B795" s="12"/>
       <c r="C795" s="12"/>
       <c r="D795" s="12"/>
       <c r="E795" s="13"/>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A796" s="11"/>
       <c r="B796" s="12"/>
       <c r="C796" s="12"/>
       <c r="D796" s="12"/>
       <c r="E796" s="13"/>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A797" s="11"/>
       <c r="B797" s="12"/>
       <c r="C797" s="12"/>
       <c r="D797" s="12"/>
       <c r="E797" s="13"/>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A798" s="11"/>
       <c r="B798" s="12"/>
       <c r="C798" s="12"/>
       <c r="D798" s="12"/>
       <c r="E798" s="13"/>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A799" s="11"/>
       <c r="B799" s="12"/>
       <c r="C799" s="12"/>
       <c r="D799" s="12"/>
       <c r="E799" s="13"/>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A800" s="11"/>
       <c r="B800" s="12"/>
       <c r="C800" s="12"/>
       <c r="D800" s="12"/>
       <c r="E800" s="13"/>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A801" s="11"/>
       <c r="B801" s="12"/>
       <c r="C801" s="12"/>
       <c r="D801" s="12"/>
       <c r="E801" s="13"/>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A802" s="11"/>
       <c r="B802" s="12"/>
       <c r="C802" s="12"/>
       <c r="D802" s="12"/>
       <c r="E802" s="13"/>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A803" s="11"/>
       <c r="B803" s="12"/>
       <c r="C803" s="12"/>
       <c r="D803" s="12"/>
       <c r="E803" s="13"/>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A804" s="11"/>
       <c r="B804" s="12"/>
       <c r="C804" s="12"/>
       <c r="D804" s="12"/>
       <c r="E804" s="13"/>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A805" s="11"/>
       <c r="B805" s="12"/>
       <c r="C805" s="12"/>
       <c r="D805" s="12"/>
       <c r="E805" s="13"/>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A806" s="11"/>
       <c r="B806" s="12"/>
       <c r="C806" s="12"/>
       <c r="D806" s="12"/>
       <c r="E806" s="13"/>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A807" s="11"/>
       <c r="B807" s="12"/>
       <c r="C807" s="12"/>
       <c r="D807" s="12"/>
       <c r="E807" s="13"/>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A808" s="11"/>
       <c r="B808" s="12"/>
       <c r="C808" s="12"/>
       <c r="D808" s="12"/>
       <c r="E808" s="13"/>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A809" s="11"/>
       <c r="B809" s="12"/>
       <c r="C809" s="12"/>
       <c r="D809" s="12"/>
       <c r="E809" s="13"/>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A810" s="11"/>
       <c r="B810" s="12"/>
       <c r="C810" s="12"/>
       <c r="D810" s="12"/>
       <c r="E810" s="13"/>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A811" s="11"/>
       <c r="B811" s="12"/>
       <c r="C811" s="12"/>
       <c r="D811" s="12"/>
       <c r="E811" s="13"/>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A812" s="11"/>
       <c r="B812" s="12"/>
       <c r="C812" s="12"/>
       <c r="D812" s="12"/>
       <c r="E812" s="13"/>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A813" s="11"/>
       <c r="B813" s="12"/>
       <c r="C813" s="12"/>
       <c r="D813" s="12"/>
       <c r="E813" s="13"/>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A814" s="11"/>
       <c r="B814" s="12"/>
       <c r="C814" s="12"/>
       <c r="D814" s="12"/>
       <c r="E814" s="13"/>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A815" s="11"/>
       <c r="B815" s="12"/>
       <c r="C815" s="12"/>
       <c r="D815" s="12"/>
       <c r="E815" s="13"/>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A816" s="11"/>
       <c r="B816" s="12"/>
       <c r="C816" s="12"/>
       <c r="D816" s="12"/>
       <c r="E816" s="13"/>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A817" s="11"/>
       <c r="B817" s="12"/>
       <c r="C817" s="12"/>
       <c r="D817" s="12"/>
       <c r="E817" s="13"/>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A818" s="11"/>
       <c r="B818" s="12"/>
       <c r="C818" s="12"/>
       <c r="D818" s="12"/>
       <c r="E818" s="13"/>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A819" s="11"/>
       <c r="B819" s="12"/>
       <c r="C819" s="12"/>
       <c r="D819" s="12"/>
       <c r="E819" s="13"/>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A820" s="11"/>
       <c r="B820" s="12"/>
       <c r="C820" s="12"/>
       <c r="D820" s="12"/>
       <c r="E820" s="13"/>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A821" s="11"/>
       <c r="B821" s="12"/>
       <c r="C821" s="12"/>
       <c r="D821" s="12"/>
       <c r="E821" s="13"/>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A822" s="11"/>
       <c r="B822" s="12"/>
       <c r="C822" s="12"/>
       <c r="D822" s="12"/>
       <c r="E822" s="13"/>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A823" s="11"/>
       <c r="B823" s="12"/>
       <c r="C823" s="12"/>
       <c r="D823" s="12"/>
       <c r="E823" s="13"/>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A824" s="11"/>
       <c r="B824" s="12"/>
       <c r="C824" s="12"/>
       <c r="D824" s="12"/>
       <c r="E824" s="13"/>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A825" s="11"/>
       <c r="B825" s="12"/>
       <c r="C825" s="12"/>
       <c r="D825" s="12"/>
       <c r="E825" s="13"/>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A826" s="11"/>
       <c r="B826" s="12"/>
       <c r="C826" s="12"/>
       <c r="D826" s="12"/>
       <c r="E826" s="13"/>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A827" s="11"/>
       <c r="B827" s="12"/>
       <c r="C827" s="12"/>
       <c r="D827" s="12"/>
       <c r="E827" s="13"/>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A828" s="11"/>
       <c r="B828" s="12"/>
       <c r="C828" s="12"/>
       <c r="D828" s="12"/>
       <c r="E828" s="13"/>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A829" s="11"/>
       <c r="B829" s="12"/>
       <c r="C829" s="12"/>
       <c r="D829" s="12"/>
       <c r="E829" s="13"/>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A830" s="11"/>
       <c r="B830" s="12"/>
       <c r="C830" s="12"/>
       <c r="D830" s="12"/>
       <c r="E830" s="13"/>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A831" s="11"/>
       <c r="B831" s="12"/>
       <c r="C831" s="12"/>
       <c r="D831" s="12"/>
       <c r="E831" s="13"/>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A832" s="11"/>
       <c r="B832" s="12"/>
       <c r="C832" s="12"/>
       <c r="D832" s="12"/>
       <c r="E832" s="13"/>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A833" s="11"/>
       <c r="B833" s="12"/>
       <c r="C833" s="12"/>
       <c r="D833" s="12"/>
       <c r="E833" s="13"/>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A834" s="11"/>
       <c r="B834" s="12"/>
       <c r="C834" s="12"/>
       <c r="D834" s="12"/>
       <c r="E834" s="13"/>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A835" s="11"/>
       <c r="B835" s="12"/>
       <c r="C835" s="12"/>
       <c r="D835" s="12"/>
       <c r="E835" s="13"/>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A836" s="11"/>
       <c r="B836" s="12"/>
       <c r="C836" s="12"/>
       <c r="D836" s="12"/>
       <c r="E836" s="13"/>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A837" s="11"/>
       <c r="B837" s="12"/>
       <c r="C837" s="12"/>
       <c r="D837" s="12"/>
       <c r="E837" s="13"/>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A838" s="11"/>
       <c r="B838" s="12"/>
       <c r="C838" s="12"/>
       <c r="D838" s="12"/>
       <c r="E838" s="13"/>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A839" s="11"/>
       <c r="B839" s="12"/>
       <c r="C839" s="12"/>
       <c r="D839" s="12"/>
       <c r="E839" s="13"/>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A840" s="11"/>
       <c r="B840" s="12"/>
       <c r="C840" s="12"/>
       <c r="D840" s="12"/>
       <c r="E840" s="13"/>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A841" s="11"/>
       <c r="B841" s="12"/>
       <c r="C841" s="12"/>
       <c r="D841" s="12"/>
       <c r="E841" s="13"/>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A842" s="11"/>
       <c r="B842" s="12"/>
       <c r="C842" s="12"/>
       <c r="D842" s="12"/>
       <c r="E842" s="13"/>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A843" s="11"/>
       <c r="B843" s="12"/>
       <c r="C843" s="12"/>
       <c r="D843" s="12"/>
       <c r="E843" s="13"/>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A844" s="11"/>
       <c r="B844" s="12"/>
       <c r="C844" s="12"/>
       <c r="D844" s="12"/>
       <c r="E844" s="13"/>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A845" s="11"/>
       <c r="B845" s="12"/>
       <c r="C845" s="12"/>
       <c r="D845" s="12"/>
       <c r="E845" s="13"/>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A846" s="11"/>
       <c r="B846" s="12"/>
       <c r="C846" s="12"/>
       <c r="D846" s="12"/>
       <c r="E846" s="13"/>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A847" s="11"/>
       <c r="B847" s="12"/>
       <c r="C847" s="12"/>
       <c r="D847" s="12"/>
       <c r="E847" s="13"/>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A848" s="11"/>
       <c r="B848" s="12"/>
       <c r="C848" s="12"/>
       <c r="D848" s="12"/>
       <c r="E848" s="13"/>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A849" s="11"/>
       <c r="B849" s="12"/>
       <c r="C849" s="12"/>
       <c r="D849" s="12"/>
       <c r="E849" s="13"/>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A850" s="11"/>
       <c r="B850" s="12"/>
       <c r="C850" s="12"/>
       <c r="D850" s="12"/>
       <c r="E850" s="13"/>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A851" s="11"/>
       <c r="B851" s="12"/>
       <c r="C851" s="12"/>
       <c r="D851" s="12"/>
       <c r="E851" s="13"/>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A852" s="11"/>
       <c r="B852" s="12"/>
       <c r="C852" s="12"/>
       <c r="D852" s="12"/>
       <c r="E852" s="13"/>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A853" s="11"/>
       <c r="B853" s="12"/>
       <c r="C853" s="12"/>
       <c r="D853" s="12"/>
       <c r="E853" s="13"/>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A854" s="11"/>
       <c r="B854" s="12"/>
       <c r="C854" s="12"/>
       <c r="D854" s="12"/>
       <c r="E854" s="13"/>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A855" s="11"/>
       <c r="B855" s="12"/>
       <c r="C855" s="12"/>
       <c r="D855" s="12"/>
       <c r="E855" s="13"/>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A856" s="11"/>
       <c r="B856" s="12"/>
       <c r="C856" s="12"/>
       <c r="D856" s="12"/>
       <c r="E856" s="13"/>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A857" s="11"/>
       <c r="B857" s="12"/>
       <c r="C857" s="12"/>
       <c r="D857" s="12"/>
       <c r="E857" s="13"/>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A858" s="11"/>
       <c r="B858" s="12"/>
       <c r="C858" s="12"/>
       <c r="D858" s="12"/>
       <c r="E858" s="13"/>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A859" s="11"/>
       <c r="B859" s="12"/>
       <c r="C859" s="12"/>
       <c r="D859" s="12"/>
       <c r="E859" s="13"/>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A860" s="11"/>
       <c r="B860" s="12"/>
       <c r="C860" s="12"/>
       <c r="D860" s="12"/>
       <c r="E860" s="13"/>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A861" s="11"/>
       <c r="B861" s="12"/>
       <c r="C861" s="12"/>
       <c r="D861" s="12"/>
       <c r="E861" s="13"/>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A862" s="11"/>
       <c r="B862" s="12"/>
       <c r="C862" s="12"/>
       <c r="D862" s="12"/>
       <c r="E862" s="13"/>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A863" s="11"/>
       <c r="B863" s="12"/>
       <c r="C863" s="12"/>
       <c r="D863" s="12"/>
       <c r="E863" s="13"/>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A864" s="11"/>
       <c r="B864" s="12"/>
       <c r="C864" s="12"/>
       <c r="D864" s="12"/>
       <c r="E864" s="13"/>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A865" s="11"/>
       <c r="B865" s="12"/>
       <c r="C865" s="12"/>
       <c r="D865" s="12"/>
       <c r="E865" s="13"/>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A866" s="11"/>
       <c r="B866" s="12"/>
       <c r="C866" s="12"/>
       <c r="D866" s="12"/>
       <c r="E866" s="13"/>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A867" s="11"/>
       <c r="B867" s="12"/>
       <c r="C867" s="12"/>
       <c r="D867" s="12"/>
       <c r="E867" s="13"/>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A868" s="11"/>
       <c r="B868" s="12"/>
       <c r="C868" s="12"/>
       <c r="D868" s="12"/>
       <c r="E868" s="13"/>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A869" s="11"/>
       <c r="B869" s="12"/>
       <c r="C869" s="12"/>
       <c r="D869" s="12"/>
       <c r="E869" s="13"/>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A870" s="11"/>
       <c r="B870" s="12"/>
       <c r="C870" s="12"/>
       <c r="D870" s="12"/>
       <c r="E870" s="13"/>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A871" s="11"/>
       <c r="B871" s="12"/>
       <c r="C871" s="12"/>
       <c r="D871" s="12"/>
       <c r="E871" s="13"/>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A872" s="11"/>
       <c r="B872" s="12"/>
       <c r="C872" s="12"/>
       <c r="D872" s="12"/>
       <c r="E872" s="13"/>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A873" s="11"/>
       <c r="B873" s="12"/>
       <c r="C873" s="12"/>
       <c r="D873" s="12"/>
       <c r="E873" s="13"/>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A874" s="11"/>
       <c r="B874" s="12"/>
       <c r="C874" s="12"/>
       <c r="D874" s="12"/>
       <c r="E874" s="13"/>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A875" s="11"/>
       <c r="B875" s="12"/>
       <c r="C875" s="12"/>
       <c r="D875" s="12"/>
       <c r="E875" s="13"/>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A876" s="11"/>
       <c r="B876" s="12"/>
       <c r="C876" s="12"/>
       <c r="D876" s="12"/>
       <c r="E876" s="13"/>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A877" s="11"/>
       <c r="B877" s="12"/>
       <c r="C877" s="12"/>
       <c r="D877" s="12"/>
       <c r="E877" s="13"/>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A878" s="11"/>
       <c r="B878" s="12"/>
       <c r="C878" s="12"/>
       <c r="D878" s="12"/>
       <c r="E878" s="13"/>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A879" s="11"/>
       <c r="B879" s="12"/>
       <c r="C879" s="12"/>
       <c r="D879" s="12"/>
       <c r="E879" s="13"/>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A880" s="11"/>
       <c r="B880" s="12"/>
       <c r="C880" s="12"/>
       <c r="D880" s="12"/>
       <c r="E880" s="13"/>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A881" s="11"/>
       <c r="B881" s="12"/>
       <c r="C881" s="12"/>
       <c r="D881" s="12"/>
       <c r="E881" s="13"/>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A882" s="11"/>
       <c r="B882" s="12"/>
       <c r="C882" s="12"/>
       <c r="D882" s="12"/>
       <c r="E882" s="13"/>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A883" s="11"/>
       <c r="B883" s="12"/>
       <c r="C883" s="12"/>
       <c r="D883" s="12"/>
       <c r="E883" s="13"/>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A884" s="11"/>
       <c r="B884" s="12"/>
       <c r="C884" s="12"/>
       <c r="D884" s="12"/>
       <c r="E884" s="13"/>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A885" s="11"/>
       <c r="B885" s="12"/>
       <c r="C885" s="12"/>
       <c r="D885" s="12"/>
       <c r="E885" s="13"/>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A886" s="11"/>
       <c r="B886" s="12"/>
       <c r="C886" s="12"/>
       <c r="D886" s="12"/>
       <c r="E886" s="13"/>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A887" s="11"/>
       <c r="B887" s="12"/>
       <c r="C887" s="12"/>
       <c r="D887" s="12"/>
       <c r="E887" s="13"/>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A888" s="11"/>
       <c r="B888" s="12"/>
       <c r="C888" s="12"/>
       <c r="D888" s="12"/>
       <c r="E888" s="13"/>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A889" s="11"/>
       <c r="B889" s="12"/>
       <c r="C889" s="12"/>
       <c r="D889" s="12"/>
       <c r="E889" s="13"/>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A890" s="11"/>
       <c r="B890" s="12"/>
       <c r="C890" s="12"/>
       <c r="D890" s="12"/>
       <c r="E890" s="13"/>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A891" s="11"/>
       <c r="B891" s="12"/>
       <c r="C891" s="12"/>
       <c r="D891" s="12"/>
       <c r="E891" s="13"/>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A892" s="11"/>
       <c r="B892" s="12"/>
       <c r="C892" s="12"/>
       <c r="D892" s="12"/>
       <c r="E892" s="13"/>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A893" s="11"/>
       <c r="B893" s="12"/>
       <c r="C893" s="12"/>
       <c r="D893" s="12"/>
       <c r="E893" s="13"/>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A894" s="11"/>
       <c r="B894" s="12"/>
       <c r="C894" s="12"/>
       <c r="D894" s="12"/>
       <c r="E894" s="13"/>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A895" s="11"/>
       <c r="B895" s="12"/>
       <c r="C895" s="12"/>
       <c r="D895" s="12"/>
       <c r="E895" s="13"/>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A896" s="11"/>
       <c r="B896" s="12"/>
       <c r="C896" s="12"/>
       <c r="D896" s="12"/>
       <c r="E896" s="13"/>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A897" s="11"/>
       <c r="B897" s="12"/>
       <c r="C897" s="12"/>
       <c r="D897" s="12"/>
       <c r="E897" s="13"/>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A898" s="11"/>
       <c r="B898" s="12"/>
       <c r="C898" s="12"/>
       <c r="D898" s="12"/>
       <c r="E898" s="13"/>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A899" s="11"/>
       <c r="B899" s="12"/>
       <c r="C899" s="12"/>
       <c r="D899" s="12"/>
       <c r="E899" s="13"/>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A900" s="11"/>
       <c r="B900" s="12"/>
       <c r="C900" s="12"/>
       <c r="D900" s="12"/>
       <c r="E900" s="13"/>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A901" s="11"/>
       <c r="B901" s="12"/>
       <c r="C901" s="12"/>
       <c r="D901" s="12"/>
       <c r="E901" s="13"/>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A902" s="11"/>
       <c r="B902" s="12"/>
       <c r="C902" s="12"/>
       <c r="D902" s="12"/>
       <c r="E902" s="13"/>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A903" s="11"/>
       <c r="B903" s="12"/>
       <c r="C903" s="12"/>
       <c r="D903" s="12"/>
       <c r="E903" s="13"/>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A904" s="11"/>
       <c r="B904" s="12"/>
       <c r="C904" s="12"/>
       <c r="D904" s="12"/>
       <c r="E904" s="13"/>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A905" s="11"/>
       <c r="B905" s="12"/>
       <c r="C905" s="12"/>
       <c r="D905" s="12"/>
       <c r="E905" s="13"/>
     </row>
-    <row r="906" spans="1:5">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A906" s="11"/>
       <c r="B906" s="12"/>
       <c r="C906" s="12"/>
       <c r="D906" s="12"/>
       <c r="E906" s="13"/>
     </row>
-    <row r="907" spans="1:5">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A907" s="11"/>
       <c r="B907" s="12"/>
       <c r="C907" s="12"/>
       <c r="D907" s="12"/>
       <c r="E907" s="13"/>
     </row>
-    <row r="908" spans="1:5">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A908" s="11"/>
       <c r="B908" s="12"/>
       <c r="C908" s="12"/>
       <c r="D908" s="12"/>
       <c r="E908" s="13"/>
     </row>
-    <row r="909" spans="1:5">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A909" s="11"/>
       <c r="B909" s="12"/>
       <c r="C909" s="12"/>
       <c r="D909" s="12"/>
       <c r="E909" s="13"/>
     </row>
-    <row r="910" spans="1:5">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A910" s="11"/>
       <c r="B910" s="12"/>
       <c r="C910" s="12"/>
       <c r="D910" s="12"/>
       <c r="E910" s="13"/>
     </row>
-    <row r="911" spans="1:5">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A911" s="11"/>
       <c r="B911" s="12"/>
       <c r="C911" s="12"/>
       <c r="D911" s="12"/>
       <c r="E911" s="13"/>
     </row>
-    <row r="912" spans="1:5">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A912" s="11"/>
       <c r="B912" s="12"/>
       <c r="C912" s="12"/>
       <c r="D912" s="12"/>
       <c r="E912" s="13"/>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A913" s="11"/>
       <c r="B913" s="12"/>
       <c r="C913" s="12"/>
       <c r="D913" s="12"/>
       <c r="E913" s="13"/>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A914" s="11"/>
       <c r="B914" s="12"/>
       <c r="C914" s="12"/>
       <c r="D914" s="12"/>
       <c r="E914" s="13"/>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A915" s="11"/>
       <c r="B915" s="12"/>
       <c r="C915" s="12"/>
       <c r="D915" s="12"/>
       <c r="E915" s="13"/>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A916" s="11"/>
       <c r="B916" s="12"/>
       <c r="C916" s="12"/>
       <c r="D916" s="12"/>
       <c r="E916" s="13"/>
     </row>
-    <row r="917" spans="1:5">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A917" s="11"/>
       <c r="B917" s="12"/>
       <c r="C917" s="12"/>
       <c r="D917" s="12"/>
       <c r="E917" s="13"/>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A918" s="11"/>
       <c r="B918" s="12"/>
       <c r="C918" s="12"/>
       <c r="D918" s="12"/>
       <c r="E918" s="13"/>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A919" s="11"/>
       <c r="B919" s="12"/>
       <c r="C919" s="12"/>
       <c r="D919" s="12"/>
       <c r="E919" s="13"/>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A920" s="11"/>
       <c r="B920" s="12"/>
       <c r="C920" s="12"/>
       <c r="D920" s="12"/>
       <c r="E920" s="13"/>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A921" s="11"/>
       <c r="B921" s="12"/>
       <c r="C921" s="12"/>
       <c r="D921" s="12"/>
       <c r="E921" s="13"/>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A922" s="11"/>
       <c r="B922" s="12"/>
       <c r="C922" s="12"/>
       <c r="D922" s="12"/>
       <c r="E922" s="13"/>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A923" s="11"/>
       <c r="B923" s="12"/>
       <c r="C923" s="12"/>
       <c r="D923" s="12"/>
       <c r="E923" s="13"/>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A924" s="11"/>
       <c r="B924" s="12"/>
       <c r="C924" s="12"/>
       <c r="D924" s="12"/>
       <c r="E924" s="13"/>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A925" s="11"/>
       <c r="B925" s="12"/>
       <c r="C925" s="12"/>
       <c r="D925" s="12"/>
       <c r="E925" s="13"/>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A926" s="11"/>
       <c r="B926" s="12"/>
       <c r="C926" s="12"/>
       <c r="D926" s="12"/>
       <c r="E926" s="13"/>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A927" s="11"/>
       <c r="B927" s="12"/>
       <c r="C927" s="12"/>
       <c r="D927" s="12"/>
       <c r="E927" s="13"/>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A928" s="11"/>
       <c r="B928" s="12"/>
       <c r="C928" s="12"/>
       <c r="D928" s="12"/>
       <c r="E928" s="13"/>
     </row>
-    <row r="929" spans="1:5">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A929" s="11"/>
       <c r="B929" s="12"/>
       <c r="C929" s="12"/>
       <c r="D929" s="12"/>
       <c r="E929" s="13"/>
     </row>
-    <row r="930" spans="1:5">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A930" s="11"/>
       <c r="B930" s="12"/>
       <c r="C930" s="12"/>
       <c r="D930" s="12"/>
       <c r="E930" s="13"/>
     </row>
-    <row r="931" spans="1:5">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A931" s="11"/>
       <c r="B931" s="12"/>
       <c r="C931" s="12"/>
       <c r="D931" s="12"/>
       <c r="E931" s="13"/>
     </row>
-    <row r="932" spans="1:5">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A932" s="11"/>
       <c r="B932" s="12"/>
       <c r="C932" s="12"/>
       <c r="D932" s="12"/>
       <c r="E932" s="13"/>
     </row>
-    <row r="933" spans="1:5">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A933" s="11"/>
       <c r="B933" s="12"/>
       <c r="C933" s="12"/>
       <c r="D933" s="12"/>
       <c r="E933" s="13"/>
     </row>
-    <row r="934" spans="1:5">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A934" s="11"/>
       <c r="B934" s="12"/>
       <c r="C934" s="12"/>
       <c r="D934" s="12"/>
       <c r="E934" s="13"/>
     </row>
-    <row r="935" spans="1:5">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A935" s="11"/>
       <c r="B935" s="12"/>
       <c r="C935" s="12"/>
       <c r="D935" s="12"/>
       <c r="E935" s="13"/>
     </row>
-    <row r="936" spans="1:5">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A936" s="11"/>
       <c r="B936" s="12"/>
       <c r="C936" s="12"/>
       <c r="D936" s="12"/>
       <c r="E936" s="13"/>
     </row>
-    <row r="937" spans="1:5">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A937" s="11"/>
       <c r="B937" s="12"/>
       <c r="C937" s="12"/>
       <c r="D937" s="12"/>
       <c r="E937" s="13"/>
     </row>
-    <row r="938" spans="1:5">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A938" s="11"/>
       <c r="B938" s="12"/>
       <c r="C938" s="12"/>
       <c r="D938" s="12"/>
       <c r="E938" s="13"/>
     </row>
-    <row r="939" spans="1:5">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A939" s="11"/>
       <c r="B939" s="12"/>
       <c r="C939" s="12"/>
       <c r="D939" s="12"/>
       <c r="E939" s="13"/>
     </row>
-    <row r="940" spans="1:5">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A940" s="11"/>
       <c r="B940" s="12"/>
       <c r="C940" s="12"/>
       <c r="D940" s="12"/>
       <c r="E940" s="13"/>
     </row>
-    <row r="941" spans="1:5">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A941" s="11"/>
       <c r="B941" s="12"/>
       <c r="C941" s="12"/>
       <c r="D941" s="12"/>
       <c r="E941" s="13"/>
     </row>
-    <row r="942" spans="1:5">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A942" s="11"/>
       <c r="B942" s="12"/>
       <c r="C942" s="12"/>
       <c r="D942" s="12"/>
       <c r="E942" s="13"/>
     </row>
-    <row r="943" spans="1:5">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A943" s="11"/>
       <c r="B943" s="12"/>
       <c r="C943" s="12"/>
       <c r="D943" s="12"/>
       <c r="E943" s="13"/>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A944" s="11"/>
       <c r="B944" s="12"/>
       <c r="C944" s="12"/>
       <c r="D944" s="12"/>
       <c r="E944" s="13"/>
     </row>
-    <row r="945" spans="1:5">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A945" s="11"/>
       <c r="B945" s="12"/>
       <c r="C945" s="12"/>
       <c r="D945" s="12"/>
       <c r="E945" s="13"/>
     </row>
-    <row r="946" spans="1:5">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A946" s="11"/>
       <c r="B946" s="12"/>
       <c r="C946" s="12"/>
       <c r="D946" s="12"/>
       <c r="E946" s="13"/>
     </row>
-    <row r="947" spans="1:5">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A947" s="11"/>
       <c r="B947" s="12"/>
       <c r="C947" s="12"/>
       <c r="D947" s="12"/>
       <c r="E947" s="13"/>
     </row>
-    <row r="948" spans="1:5">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A948" s="11"/>
       <c r="B948" s="12"/>
       <c r="C948" s="12"/>
       <c r="D948" s="12"/>
       <c r="E948" s="13"/>
     </row>
-    <row r="949" spans="1:5">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A949" s="11"/>
       <c r="B949" s="12"/>
       <c r="C949" s="12"/>
       <c r="D949" s="12"/>
       <c r="E949" s="13"/>
     </row>
-    <row r="950" spans="1:5">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A950" s="11"/>
       <c r="B950" s="12"/>
       <c r="C950" s="12"/>
       <c r="D950" s="12"/>
       <c r="E950" s="13"/>
     </row>
-    <row r="951" spans="1:5">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A951" s="11"/>
       <c r="B951" s="12"/>
       <c r="C951" s="12"/>
       <c r="D951" s="12"/>
       <c r="E951" s="13"/>
     </row>
-    <row r="952" spans="1:5">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A952" s="11"/>
       <c r="B952" s="12"/>
       <c r="C952" s="12"/>
       <c r="D952" s="12"/>
       <c r="E952" s="13"/>
     </row>
-    <row r="953" spans="1:5">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A953" s="11"/>
       <c r="B953" s="12"/>
       <c r="C953" s="12"/>
       <c r="D953" s="12"/>
       <c r="E953" s="13"/>
     </row>
-    <row r="954" spans="1:5">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A954" s="11"/>
       <c r="B954" s="12"/>
       <c r="C954" s="12"/>
       <c r="D954" s="12"/>
       <c r="E954" s="13"/>
     </row>
-    <row r="955" spans="1:5">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A955" s="11"/>
       <c r="B955" s="12"/>
       <c r="C955" s="12"/>
       <c r="D955" s="12"/>
       <c r="E955" s="13"/>
     </row>
-    <row r="956" spans="1:5">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A956" s="11"/>
       <c r="B956" s="12"/>
       <c r="C956" s="12"/>
       <c r="D956" s="12"/>
       <c r="E956" s="13"/>
     </row>
-    <row r="957" spans="1:5">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A957" s="11"/>
       <c r="B957" s="12"/>
       <c r="C957" s="12"/>
       <c r="D957" s="12"/>
       <c r="E957" s="13"/>
     </row>
-    <row r="958" spans="1:5">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A958" s="11"/>
       <c r="B958" s="12"/>
       <c r="C958" s="12"/>
       <c r="D958" s="12"/>
       <c r="E958" s="13"/>
     </row>
-    <row r="959" spans="1:5">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A959" s="11"/>
       <c r="B959" s="12"/>
       <c r="C959" s="12"/>
       <c r="D959" s="12"/>
       <c r="E959" s="13"/>
     </row>
-    <row r="960" spans="1:5">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A960" s="11"/>
       <c r="B960" s="12"/>
       <c r="C960" s="12"/>
       <c r="D960" s="12"/>
       <c r="E960" s="13"/>
     </row>
-    <row r="961" spans="1:5">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A961" s="11"/>
       <c r="B961" s="12"/>
       <c r="C961" s="12"/>
       <c r="D961" s="12"/>
       <c r="E961" s="13"/>
     </row>
-    <row r="962" spans="1:5">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A962" s="11"/>
       <c r="B962" s="12"/>
       <c r="C962" s="12"/>
       <c r="D962" s="12"/>
       <c r="E962" s="13"/>
     </row>
-    <row r="963" spans="1:5">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A963" s="11"/>
       <c r="B963" s="12"/>
       <c r="C963" s="12"/>
       <c r="D963" s="12"/>
       <c r="E963" s="13"/>
     </row>
-    <row r="964" spans="1:5">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A964" s="11"/>
       <c r="B964" s="12"/>
       <c r="C964" s="12"/>
       <c r="D964" s="12"/>
       <c r="E964" s="13"/>
     </row>
-    <row r="965" spans="1:5">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A965" s="11"/>
       <c r="B965" s="12"/>
       <c r="C965" s="12"/>
       <c r="D965" s="12"/>
       <c r="E965" s="13"/>
     </row>
-    <row r="966" spans="1:5">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A966" s="11"/>
       <c r="B966" s="12"/>
       <c r="C966" s="12"/>
       <c r="D966" s="12"/>
       <c r="E966" s="13"/>
     </row>
-    <row r="967" spans="1:5">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A967" s="11"/>
       <c r="B967" s="12"/>
       <c r="C967" s="12"/>
       <c r="D967" s="12"/>
       <c r="E967" s="13"/>
     </row>
-    <row r="968" spans="1:5">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A968" s="11"/>
       <c r="B968" s="12"/>
       <c r="C968" s="12"/>
       <c r="D968" s="12"/>
       <c r="E968" s="13"/>
     </row>
-    <row r="969" spans="1:5">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A969" s="11"/>
       <c r="B969" s="12"/>
       <c r="C969" s="12"/>
       <c r="D969" s="12"/>
       <c r="E969" s="13"/>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A970" s="11"/>
       <c r="B970" s="12"/>
       <c r="C970" s="12"/>
       <c r="D970" s="12"/>
       <c r="E970" s="13"/>
     </row>
-    <row r="971" spans="1:5">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A971" s="11"/>
       <c r="B971" s="12"/>
       <c r="C971" s="12"/>
       <c r="D971" s="12"/>
       <c r="E971" s="13"/>
     </row>
-    <row r="972" spans="1:5">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A972" s="11"/>
       <c r="B972" s="12"/>
       <c r="C972" s="12"/>
       <c r="D972" s="12"/>
       <c r="E972" s="13"/>
     </row>
-    <row r="973" spans="1:5">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A973" s="11"/>
       <c r="B973" s="12"/>
       <c r="C973" s="12"/>
       <c r="D973" s="12"/>
       <c r="E973" s="13"/>
     </row>
-    <row r="974" spans="1:5">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A974" s="11"/>
       <c r="B974" s="12"/>
       <c r="C974" s="12"/>
       <c r="D974" s="12"/>
       <c r="E974" s="13"/>
     </row>
-    <row r="975" spans="1:5">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A975" s="11"/>
       <c r="B975" s="12"/>
       <c r="C975" s="12"/>
       <c r="D975" s="12"/>
       <c r="E975" s="13"/>
     </row>
-    <row r="976" spans="1:5">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A976" s="11"/>
       <c r="B976" s="12"/>
       <c r="C976" s="12"/>
       <c r="D976" s="12"/>
       <c r="E976" s="13"/>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A977" s="11"/>
       <c r="B977" s="12"/>
       <c r="C977" s="12"/>
       <c r="D977" s="12"/>
       <c r="E977" s="13"/>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A978" s="11"/>
       <c r="B978" s="12"/>
       <c r="C978" s="12"/>
       <c r="D978" s="12"/>
       <c r="E978" s="13"/>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A979" s="11"/>
       <c r="B979" s="12"/>
       <c r="C979" s="12"/>
       <c r="D979" s="12"/>
       <c r="E979" s="13"/>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A980" s="11"/>
       <c r="B980" s="12"/>
       <c r="C980" s="12"/>
       <c r="D980" s="12"/>
       <c r="E980" s="13"/>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A981" s="11"/>
       <c r="B981" s="12"/>
       <c r="C981" s="12"/>
       <c r="D981" s="12"/>
       <c r="E981" s="13"/>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A982" s="11"/>
       <c r="B982" s="12"/>
       <c r="C982" s="12"/>
       <c r="D982" s="12"/>
       <c r="E982" s="13"/>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A983" s="11"/>
       <c r="B983" s="12"/>
       <c r="C983" s="12"/>
       <c r="D983" s="12"/>
       <c r="E983" s="13"/>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A984" s="11"/>
       <c r="B984" s="12"/>
       <c r="C984" s="12"/>
       <c r="D984" s="12"/>
       <c r="E984" s="13"/>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A985" s="11"/>
       <c r="B985" s="12"/>
       <c r="C985" s="12"/>
       <c r="D985" s="12"/>
       <c r="E985" s="13"/>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A986" s="11"/>
       <c r="B986" s="12"/>
       <c r="C986" s="12"/>
       <c r="D986" s="12"/>
       <c r="E986" s="13"/>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A987" s="11"/>
       <c r="B987" s="12"/>
       <c r="C987" s="12"/>
       <c r="D987" s="12"/>
       <c r="E987" s="13"/>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A988" s="11"/>
       <c r="B988" s="12"/>
       <c r="C988" s="12"/>
       <c r="D988" s="12"/>
       <c r="E988" s="13"/>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A989" s="11"/>
       <c r="B989" s="12"/>
       <c r="C989" s="12"/>
       <c r="D989" s="12"/>
       <c r="E989" s="13"/>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A990" s="11"/>
       <c r="B990" s="12"/>
       <c r="C990" s="12"/>
       <c r="D990" s="12"/>
       <c r="E990" s="13"/>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A991" s="11"/>
       <c r="B991" s="12"/>
       <c r="C991" s="12"/>
       <c r="D991" s="12"/>
       <c r="E991" s="13"/>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A992" s="11"/>
       <c r="B992" s="12"/>
       <c r="C992" s="12"/>
       <c r="D992" s="12"/>
       <c r="E992" s="13"/>
     </row>
-    <row r="993" spans="1:5">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A993" s="11"/>
       <c r="B993" s="12"/>
       <c r="C993" s="12"/>
       <c r="D993" s="12"/>
       <c r="E993" s="13"/>
     </row>
-    <row r="994" spans="1:5">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A994" s="11"/>
       <c r="B994" s="12"/>
       <c r="C994" s="12"/>
       <c r="D994" s="12"/>
       <c r="E994" s="13"/>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A995" s="11"/>
       <c r="B995" s="12"/>
       <c r="C995" s="12"/>
       <c r="D995" s="12"/>
       <c r="E995" s="13"/>
     </row>
-    <row r="996" spans="1:5">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A996" s="11"/>
       <c r="B996" s="12"/>
       <c r="C996" s="12"/>
       <c r="D996" s="12"/>
       <c r="E996" s="13"/>
     </row>
-    <row r="997" spans="1:5">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A997" s="11"/>
       <c r="B997" s="12"/>
       <c r="C997" s="12"/>
       <c r="D997" s="12"/>
       <c r="E997" s="13"/>
     </row>
-    <row r="998" spans="1:5">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A998" s="11"/>
       <c r="B998" s="12"/>
       <c r="C998" s="12"/>
       <c r="D998" s="12"/>
       <c r="E998" s="13"/>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A999" s="11"/>
       <c r="B999" s="12"/>
       <c r="C999" s="12"/>
       <c r="D999" s="12"/>
       <c r="E999" s="13"/>
     </row>
-    <row r="1000" spans="1:5">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1000" s="14"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="15"/>
@@ -15082,17 +15023,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5859375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
@@ -15112,7 +15053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -15134,7 +15075,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -15156,7 +15097,7 @@
         <v>-2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -15178,7 +15119,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -15200,7 +15141,7 @@
         <v>-3.125E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -15222,7 +15163,7 @@
         <v>-1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -15246,37 +15187,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="17" priority="4">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>ABS(F2)&gt;0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>ABS(F2)&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15296,26 +15207,26 @@
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.29296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="20.7" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
@@ -15329,7 +15240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -15346,7 +15257,7 @@
         <v>2.6970954356846474E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="25" t="s">
         <v>11</v>
       </c>
@@ -15363,7 +15274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="str" cm="1">
         <f t="array" ref="A7:A9">_xlfn.UNIQUE(budget_vs_actuals[Department])</f>
         <v>Sales</v>
@@ -15385,7 +15296,7 @@
         <v>1.020408163265306E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="str">
         <v>Marketing</v>
       </c>
@@ -15402,7 +15313,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="str">
         <v>Operations</v>
       </c>
@@ -15419,283 +15330,283 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
@@ -15706,23 +15617,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>ABS(D4)&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E56">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND(ROW()&gt;=ROW(E7), ABS(E7)&gt;0.1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7:E9">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>ABS($E7)&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E9">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>ABS($E7)&gt;0.1</formula>
+  <conditionalFormatting sqref="E7:E56">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(ROW()&gt;=ROW(E7), ABS(E7)&gt;0.1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15738,15 +15644,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.41015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
@@ -15763,7 +15669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>4000</v>
       </c>
@@ -15780,7 +15686,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>4000</v>
       </c>
@@ -15797,7 +15703,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -15814,7 +15720,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -15831,7 +15737,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>6000</v>
       </c>
@@ -15848,7 +15754,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -15865,7 +15771,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -15882,7 +15788,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -15899,7 +15805,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -15916,7 +15822,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -15933,7 +15839,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>3000</v>
       </c>
@@ -15950,7 +15856,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>3000</v>
       </c>
@@ -15979,27 +15885,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD97B83-91CB-43F7-BAFD-CF82FFFF9B47}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -16015,7 +15923,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
@@ -16034,7 +15942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="27" t="s">
         <v>27</v>
       </c>
@@ -16043,7 +15951,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
@@ -16064,7 +15972,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
         <v>40</v>
       </c>
@@ -16085,14 +15993,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="27" t="s">
         <v>28</v>
       </c>
@@ -16101,7 +16009,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
@@ -16122,7 +16030,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="30" t="s">
         <v>41</v>
       </c>
@@ -16143,7 +16051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="30" t="s">
         <v>42</v>
       </c>
@@ -16164,14 +16072,14 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="27" t="s">
         <v>30</v>
       </c>
@@ -16180,7 +16088,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>30</v>
       </c>
@@ -16201,7 +16109,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="30" t="s">
         <v>43</v>
       </c>
@@ -16222,7 +16130,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -16243,7 +16151,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="30" t="s">
         <v>45</v>
       </c>
@@ -16272,8 +16180,6 @@
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>5%</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6 E10 E15">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>-5%</formula>
     </cfRule>
@@ -16288,27 +16194,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5859375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.41015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="A1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -16324,7 +16230,7 @@
         <v>45925</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
@@ -16346,7 +16252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="27" t="s">
         <v>48</v>
       </c>
@@ -16356,7 +16262,7 @@
       <c r="E5" s="32"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
@@ -16378,7 +16284,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="30" t="s">
         <v>49</v>
       </c>
@@ -16400,7 +16306,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -16408,7 +16314,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="27" t="s">
         <v>50</v>
       </c>
@@ -16418,7 +16324,7 @@
       <c r="E9" s="32"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
@@ -16440,7 +16346,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="30" t="s">
         <v>51</v>
       </c>
@@ -16462,7 +16368,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="27" t="s">
         <v>35</v>
       </c>
@@ -16472,7 +16378,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>35</v>
       </c>
@@ -16494,7 +16400,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="30" t="s">
         <v>52</v>
       </c>
@@ -16516,7 +16422,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>53</v>
       </c>
@@ -16545,8 +16451,6 @@
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>5%</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F10 F13">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>-5%</formula>
     </cfRule>
@@ -16561,15 +16465,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5859375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A1" s="40" t="s">
         <v>55</v>
       </c>
@@ -16581,7 +16485,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
@@ -16598,7 +16502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -16618,7 +16522,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -16638,7 +16542,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -16658,7 +16562,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -16678,7 +16582,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -16687,7 +16591,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="34" t="s">
         <v>65</v>
       </c>
@@ -16705,7 +16609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D10" t="s">
         <v>48</v>
       </c>
@@ -16718,7 +16622,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D11" t="s">
         <v>50</v>
       </c>
@@ -16731,7 +16635,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D12" s="34" t="s">
         <v>35</v>
       </c>
